--- a/quiz_questions.xlsx
+++ b/quiz_questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshi\ATP-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC2F431-E88D-4DB8-9EC6-3A24974B9A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AC1C91-AE67-4BF4-BAF7-9ED39B7595B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="0" windowWidth="15396" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="720" windowWidth="17280" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="340">
   <si>
     <t>カテゴリ</t>
   </si>
@@ -4770,6 +4770,25 @@
       </rPr>
       <t>สุภาพกว่าและดีกว่า</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正答</t>
+    <rPh sb="0" eb="2">
+      <t>セイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEITOU</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5235,7 +5254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5478,6 +5497,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5787,10 +5815,10 @@
   <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q8" sqref="Q8"/>
+      <selection pane="bottomRight" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.2"/>
@@ -7675,7 +7703,53 @@
       <c r="T37" s="69"/>
       <c r="V37"/>
     </row>
-    <row r="38" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>2</v>
+      </c>
+      <c r="B38" s="5">
+        <v>14</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="G38" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="H38" s="74" t="s">
+        <v>339</v>
+      </c>
+      <c r="I38" s="36"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="N38" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="O38" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="P38" s="55"/>
+      <c r="Q38" s="80"/>
+      <c r="R38" s="67" t="s">
+        <v>338</v>
+      </c>
+      <c r="S38" s="68"/>
+      <c r="T38" s="69"/>
+      <c r="V38"/>
+    </row>
     <row r="39" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/quiz_questions.xlsx
+++ b/quiz_questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshi\ATP-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AC1C91-AE67-4BF4-BAF7-9ED39B7595B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00340FAE-4033-4BF9-B646-4CC5248104B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="720" windowWidth="17280" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="0" windowWidth="17280" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="336">
   <si>
     <t>カテゴリ</t>
   </si>
@@ -4770,25 +4770,6 @@
       </rPr>
       <t>สุภาพกว่าและดีกว่า</t>
     </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テスト。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TEST</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>正答</t>
-    <rPh sb="0" eb="2">
-      <t>セイトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEITOU</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5254,7 +5235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5497,15 +5478,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5812,13 +5784,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V39"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A38" sqref="A38"/>
+      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.2"/>
@@ -7703,54 +7675,7 @@
       <c r="T37" s="69"/>
       <c r="V37"/>
     </row>
-    <row r="38" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
-        <v>2</v>
-      </c>
-      <c r="B38" s="5">
-        <v>14</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="F38" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="G38" s="35" t="s">
-        <v>338</v>
-      </c>
-      <c r="H38" s="74" t="s">
-        <v>339</v>
-      </c>
-      <c r="I38" s="36"/>
-      <c r="J38" s="75"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="76"/>
-      <c r="M38" s="82" t="s">
-        <v>18</v>
-      </c>
-      <c r="N38" s="83" t="s">
-        <v>19</v>
-      </c>
-      <c r="O38" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="80"/>
-      <c r="R38" s="67" t="s">
-        <v>338</v>
-      </c>
-      <c r="S38" s="68"/>
-      <c r="T38" s="69"/>
-      <c r="V38"/>
-    </row>
-    <row r="39" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/quiz_questions.xlsx
+++ b/quiz_questions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8280"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4205,7 +4205,7 @@
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;฿&quot;* #,##0_-;\-&quot;฿&quot;* #,##0_-;_-&quot;฿&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4229,12 +4229,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic UI"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Tahoma"/>
       <charset val="222"/>
     </font>
@@ -4249,13 +4243,6 @@
       <color theme="1"/>
       <name val="Tahoma"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -4426,7 +4413,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4561,12 +4548,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4580,12 +4561,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4609,12 +4584,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4628,12 +4597,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5083,19 +5046,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5104,131 +5076,122 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5281,13 +5244,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5302,16 +5265,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5323,22 +5286,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5368,7 +5331,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5404,13 +5367,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5459,9 +5422,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5827,11 +5787,11 @@
   <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E30" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R39" sqref="R39"/>
+      <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -6290,7 +6250,7 @@
       <c r="P9" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="Q9" s="78" t="s">
+      <c r="Q9" s="74" t="s">
         <v>86</v>
       </c>
       <c r="R9" s="75" t="s">
@@ -7708,26 +7668,26 @@
         <v>329</v>
       </c>
       <c r="P37" s="65"/>
-      <c r="Q37" s="79"/>
-      <c r="R37" s="80" t="s">
+      <c r="Q37" s="78"/>
+      <c r="R37" s="79" t="s">
         <v>330</v>
       </c>
-      <c r="S37" s="81"/>
-      <c r="T37" s="82"/>
+      <c r="S37" s="80"/>
+      <c r="T37" s="81"/>
       <c r="V37"/>
     </row>
     <row r="38" ht="70.05" customHeight="1" spans="1:22">
       <c r="A38" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38" s="30">
-        <v>14</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="D38" s="32" t="s">
-        <v>220</v>
+        <v>24</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="E38" s="33" t="s">
         <v>331</v>
@@ -7755,12 +7715,12 @@
         <v>337</v>
       </c>
       <c r="P38" s="65"/>
-      <c r="Q38" s="79"/>
-      <c r="R38" s="80" t="s">
+      <c r="Q38" s="78"/>
+      <c r="R38" s="79" t="s">
         <v>338</v>
       </c>
-      <c r="S38" s="81"/>
-      <c r="T38" s="82"/>
+      <c r="S38" s="80"/>
+      <c r="T38" s="81"/>
       <c r="V38"/>
     </row>
     <row r="39" ht="70.05" customHeight="1"/>

--- a/quiz_questions.xlsx
+++ b/quiz_questions.xlsx
@@ -2489,6 +2489,30 @@
     <t>これから　3ねんかん　おせわに　なりました。どうも　ありがとうございました。</t>
   </si>
   <si>
+    <t>ssdbsb</t>
+  </si>
+  <si>
+    <t>sbfgnsfgnfg</t>
+  </si>
+  <si>
+    <t>sbgfsfgsfg</t>
+  </si>
+  <si>
+    <t>sdb</t>
+  </si>
+  <si>
+    <t>ssdfbfs</t>
+  </si>
+  <si>
+    <t>dsbfdbsdfb</t>
+  </si>
+  <si>
+    <t>sd sdfbf</t>
+  </si>
+  <si>
+    <t>Aiueo</t>
+  </si>
+  <si>
     <t>日常生活編</t>
   </si>
   <si>
@@ -4169,30 +4193,6 @@
   </si>
   <si>
     <t>ざいりゅうカード</t>
-  </si>
-  <si>
-    <t>ssdbsb</t>
-  </si>
-  <si>
-    <t>sbfgnsfgnfg</t>
-  </si>
-  <si>
-    <t>sbgfsfgsfg</t>
-  </si>
-  <si>
-    <t>sdb</t>
-  </si>
-  <si>
-    <t>ssdfbfs</t>
-  </si>
-  <si>
-    <t>dsbfdbsdfb</t>
-  </si>
-  <si>
-    <t>sd sdfbf</t>
-  </si>
-  <si>
-    <t>Aiueo</t>
   </si>
 </sst>
 </file>
@@ -4235,14 +4235,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Browallia New"/>
-      <charset val="134"/>
+      <name val="Tahoma"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="128"/>
+      <name val="Browallia New"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -4391,8 +4391,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <charset val="222"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4403,14 +4409,8 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="222"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -4890,6 +4890,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="hair">
         <color auto="1"/>
       </left>
@@ -4911,32 +4937,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top style="hair">
         <color auto="1"/>
       </top>
@@ -5274,115 +5274,115 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5424,16 +5424,16 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5787,11 +5787,11 @@
   <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
+      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -7024,58 +7024,50 @@
       <c r="V24"/>
     </row>
     <row r="25" ht="70.05" customHeight="1" spans="1:22">
-      <c r="A25" s="21">
-        <v>2</v>
-      </c>
-      <c r="B25" s="21">
+      <c r="A25" s="28">
         <v>1</v>
       </c>
+      <c r="B25" s="29">
+        <v>24</v>
+      </c>
       <c r="C25" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="F25" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="G25" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="H25" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="G25" s="26" t="s">
+      <c r="I25" s="58"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="H25" s="20" t="s">
+      <c r="N25" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="I25" s="52" t="s">
+      <c r="O25" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="J25" s="20" t="s">
+      <c r="P25" s="65"/>
+      <c r="Q25" s="78"/>
+      <c r="R25" s="79" t="s">
         <v>226</v>
       </c>
-      <c r="K25" s="53" t="s">
-        <v>227</v>
-      </c>
-      <c r="L25" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="M25" s="54" t="s">
-        <v>229</v>
-      </c>
-      <c r="N25" s="55"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="74"/>
-      <c r="R25" s="75" t="s">
-        <v>223</v>
-      </c>
-      <c r="S25" s="76" t="s">
-        <v>225</v>
-      </c>
-      <c r="T25" s="77" t="s">
-        <v>227</v>
-      </c>
+      <c r="S25" s="80"/>
+      <c r="T25" s="81"/>
       <c r="V25"/>
     </row>
     <row r="26" ht="70.05" customHeight="1" spans="1:22">
@@ -7083,53 +7075,53 @@
         <v>2</v>
       </c>
       <c r="B26" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>220</v>
+        <v>227</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>228</v>
       </c>
       <c r="E26" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="F26" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="G26" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="G26" s="26" t="s">
+      <c r="H26" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="H26" s="20" t="s">
+      <c r="I26" s="52" t="s">
         <v>233</v>
       </c>
-      <c r="I26" s="52" t="s">
+      <c r="J26" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="J26" s="20" t="s">
+      <c r="K26" s="53" t="s">
         <v>235</v>
       </c>
-      <c r="K26" s="53" t="s">
+      <c r="L26" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="L26" s="47" t="s">
+      <c r="M26" s="54" t="s">
         <v>237</v>
-      </c>
-      <c r="M26" s="54" t="s">
-        <v>238</v>
       </c>
       <c r="N26" s="55"/>
       <c r="O26" s="56"/>
       <c r="P26" s="57"/>
       <c r="Q26" s="74"/>
       <c r="R26" s="75" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="S26" s="76" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="T26" s="77" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="V26"/>
     </row>
@@ -7138,50 +7130,54 @@
         <v>2</v>
       </c>
       <c r="B27" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>220</v>
+        <v>227</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>228</v>
       </c>
       <c r="E27" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="H27" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="I27" s="52" t="s">
         <v>242</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="J27" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="H27" s="20" t="s">
+      <c r="K27" s="53" t="s">
         <v>244</v>
       </c>
-      <c r="I27" s="52" t="s">
+      <c r="L27" s="47" t="s">
         <v>245</v>
       </c>
-      <c r="J27" s="20" t="s">
+      <c r="M27" s="54" t="s">
         <v>246</v>
       </c>
-      <c r="K27" s="53"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="54" t="s">
-        <v>247</v>
-      </c>
-      <c r="N27" s="55" t="s">
-        <v>248</v>
-      </c>
+      <c r="N27" s="55"/>
       <c r="O27" s="56"/>
       <c r="P27" s="57"/>
       <c r="Q27" s="74"/>
       <c r="R27" s="75" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="S27" s="76" t="s">
-        <v>245</v>
-      </c>
-      <c r="T27" s="77"/>
+        <v>242</v>
+      </c>
+      <c r="T27" s="77" t="s">
+        <v>248</v>
+      </c>
       <c r="V27"/>
     </row>
     <row r="28" ht="70.05" customHeight="1" spans="1:22">
@@ -7189,13 +7185,13 @@
         <v>2</v>
       </c>
       <c r="B28" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>220</v>
+        <v>227</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>228</v>
       </c>
       <c r="E28" s="24" t="s">
         <v>249</v>
@@ -7227,10 +7223,10 @@
       <c r="P28" s="57"/>
       <c r="Q28" s="74"/>
       <c r="R28" s="75" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="S28" s="76" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="T28" s="77"/>
       <c r="V28"/>
@@ -7240,48 +7236,48 @@
         <v>2</v>
       </c>
       <c r="B29" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>220</v>
+        <v>227</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>228</v>
       </c>
       <c r="E29" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="G29" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="H29" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="G29" s="26" t="s">
+      <c r="I29" s="52" t="s">
         <v>261</v>
       </c>
-      <c r="H29" s="20" t="s">
+      <c r="J29" s="20" t="s">
         <v>262</v>
-      </c>
-      <c r="I29" s="52" t="s">
-        <v>263</v>
-      </c>
-      <c r="J29" s="20" t="s">
-        <v>264</v>
       </c>
       <c r="K29" s="53"/>
       <c r="L29" s="47"/>
       <c r="M29" s="54" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="N29" s="55" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O29" s="56"/>
       <c r="P29" s="57"/>
       <c r="Q29" s="74"/>
       <c r="R29" s="75" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="S29" s="76" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="T29" s="77"/>
       <c r="V29"/>
@@ -7291,48 +7287,48 @@
         <v>2</v>
       </c>
       <c r="B30" s="21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>220</v>
+        <v>227</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>228</v>
       </c>
       <c r="E30" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="F30" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="F30" s="25" t="s">
+      <c r="G30" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="G30" s="26" t="s">
+      <c r="H30" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="H30" s="20" t="s">
+      <c r="I30" s="52" t="s">
         <v>271</v>
       </c>
-      <c r="I30" s="52" t="s">
+      <c r="J30" s="20" t="s">
         <v>272</v>
-      </c>
-      <c r="J30" s="20" t="s">
-        <v>273</v>
       </c>
       <c r="K30" s="53"/>
       <c r="L30" s="47"/>
       <c r="M30" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="N30" s="55" t="s">
         <v>274</v>
-      </c>
-      <c r="N30" s="55" t="s">
-        <v>275</v>
       </c>
       <c r="O30" s="56"/>
       <c r="P30" s="57"/>
       <c r="Q30" s="74"/>
       <c r="R30" s="75" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S30" s="76" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="T30" s="77"/>
       <c r="V30"/>
@@ -7342,13 +7338,13 @@
         <v>2</v>
       </c>
       <c r="B31" s="21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>220</v>
+        <v>227</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>228</v>
       </c>
       <c r="E31" s="24" t="s">
         <v>276</v>
@@ -7374,7 +7370,7 @@
         <v>282</v>
       </c>
       <c r="N31" s="55" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="O31" s="56"/>
       <c r="P31" s="57"/>
@@ -7383,7 +7379,7 @@
         <v>278</v>
       </c>
       <c r="S31" s="76" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="T31" s="77"/>
       <c r="V31"/>
@@ -7393,13 +7389,13 @@
         <v>2</v>
       </c>
       <c r="B32" s="21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>220</v>
+        <v>227</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>228</v>
       </c>
       <c r="E32" s="24" t="s">
         <v>284</v>
@@ -7413,25 +7409,29 @@
       <c r="H32" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="I32" s="52"/>
-      <c r="J32" s="20"/>
+      <c r="I32" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>289</v>
+      </c>
       <c r="K32" s="53"/>
       <c r="L32" s="47"/>
       <c r="M32" s="54" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N32" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="O32" s="56" t="s">
-        <v>290</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="O32" s="56"/>
       <c r="P32" s="57"/>
       <c r="Q32" s="74"/>
       <c r="R32" s="75" t="s">
         <v>286</v>
       </c>
-      <c r="S32" s="76"/>
+      <c r="S32" s="76" t="s">
+        <v>291</v>
+      </c>
       <c r="T32" s="77"/>
       <c r="V32"/>
     </row>
@@ -7440,43 +7440,43 @@
         <v>2</v>
       </c>
       <c r="B33" s="21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="D33" s="28" t="s">
-        <v>220</v>
+        <v>227</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>228</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G33" s="26" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I33" s="52"/>
       <c r="J33" s="20"/>
       <c r="K33" s="53"/>
       <c r="L33" s="47"/>
       <c r="M33" s="54" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N33" s="55" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O33" s="56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P33" s="57"/>
       <c r="Q33" s="74"/>
       <c r="R33" s="75" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="S33" s="76"/>
       <c r="T33" s="77"/>
@@ -7487,13 +7487,13 @@
         <v>2</v>
       </c>
       <c r="B34" s="21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="D34" s="28" t="s">
-        <v>220</v>
+        <v>227</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>228</v>
       </c>
       <c r="E34" s="24" t="s">
         <v>299</v>
@@ -7507,29 +7507,25 @@
       <c r="H34" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="I34" s="52" t="s">
-        <v>303</v>
-      </c>
-      <c r="J34" s="20" t="s">
-        <v>304</v>
-      </c>
+      <c r="I34" s="52"/>
+      <c r="J34" s="20"/>
       <c r="K34" s="53"/>
       <c r="L34" s="47"/>
       <c r="M34" s="54" t="s">
+        <v>303</v>
+      </c>
+      <c r="N34" s="55" t="s">
+        <v>304</v>
+      </c>
+      <c r="O34" s="56" t="s">
         <v>305</v>
       </c>
-      <c r="N34" s="55" t="s">
-        <v>306</v>
-      </c>
-      <c r="O34" s="56"/>
       <c r="P34" s="57"/>
       <c r="Q34" s="74"/>
       <c r="R34" s="75" t="s">
-        <v>301</v>
-      </c>
-      <c r="S34" s="76" t="s">
-        <v>307</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="S34" s="76"/>
       <c r="T34" s="77"/>
       <c r="V34"/>
     </row>
@@ -7538,45 +7534,49 @@
         <v>2</v>
       </c>
       <c r="B35" s="21">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>220</v>
+        <v>227</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>228</v>
       </c>
       <c r="E35" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="F35" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="F35" s="25" t="s">
+      <c r="G35" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="G35" s="26" t="s">
+      <c r="H35" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="H35" s="20" t="s">
+      <c r="I35" s="52" t="s">
         <v>311</v>
       </c>
-      <c r="I35" s="52"/>
-      <c r="J35" s="20"/>
+      <c r="J35" s="20" t="s">
+        <v>312</v>
+      </c>
       <c r="K35" s="53"/>
       <c r="L35" s="47"/>
       <c r="M35" s="54" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N35" s="55" t="s">
-        <v>313</v>
-      </c>
-      <c r="O35" s="56" t="s">
         <v>314</v>
       </c>
+      <c r="O35" s="56"/>
       <c r="P35" s="57"/>
       <c r="Q35" s="74"/>
       <c r="R35" s="75" t="s">
-        <v>310</v>
-      </c>
-      <c r="S35" s="76"/>
+        <v>309</v>
+      </c>
+      <c r="S35" s="76" t="s">
+        <v>315</v>
+      </c>
       <c r="T35" s="77"/>
       <c r="V35"/>
     </row>
@@ -7585,122 +7585,122 @@
         <v>2</v>
       </c>
       <c r="B36" s="21">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>220</v>
+        <v>227</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>228</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H36" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="I36" s="52" t="s">
         <v>319</v>
       </c>
-      <c r="J36" s="20" t="s">
-        <v>320</v>
-      </c>
+      <c r="I36" s="52"/>
+      <c r="J36" s="20"/>
       <c r="K36" s="53"/>
       <c r="L36" s="47"/>
       <c r="M36" s="54" t="s">
+        <v>320</v>
+      </c>
+      <c r="N36" s="55" t="s">
         <v>321</v>
       </c>
-      <c r="N36" s="55" t="s">
+      <c r="O36" s="56" t="s">
         <v>322</v>
       </c>
-      <c r="O36" s="56"/>
       <c r="P36" s="57"/>
       <c r="Q36" s="74"/>
       <c r="R36" s="75" t="s">
-        <v>317</v>
-      </c>
-      <c r="S36" s="76" t="s">
-        <v>323</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="S36" s="76"/>
       <c r="T36" s="77"/>
       <c r="V36"/>
     </row>
     <row r="37" ht="70.05" customHeight="1" spans="1:22">
-      <c r="A37" s="29">
+      <c r="A37" s="21">
         <v>2</v>
       </c>
-      <c r="B37" s="30">
-        <v>13</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="E37" s="33" t="s">
+      <c r="B37" s="21">
+        <v>12</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="F37" s="25" t="s">
         <v>324</v>
       </c>
-      <c r="F37" s="34" t="s">
+      <c r="G37" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="G37" s="35" t="s">
+      <c r="H37" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="H37" s="36"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="61"/>
-      <c r="M37" s="62" t="s">
+      <c r="I37" s="52" t="s">
         <v>327</v>
       </c>
-      <c r="N37" s="63" t="s">
+      <c r="J37" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="O37" s="64" t="s">
+      <c r="K37" s="53"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="54" t="s">
         <v>329</v>
       </c>
-      <c r="P37" s="65"/>
-      <c r="Q37" s="78"/>
-      <c r="R37" s="79" t="s">
+      <c r="N37" s="55" t="s">
         <v>330</v>
       </c>
-      <c r="S37" s="80"/>
-      <c r="T37" s="81"/>
+      <c r="O37" s="56"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="74"/>
+      <c r="R37" s="75" t="s">
+        <v>325</v>
+      </c>
+      <c r="S37" s="76" t="s">
+        <v>331</v>
+      </c>
+      <c r="T37" s="77"/>
       <c r="V37"/>
     </row>
     <row r="38" ht="70.05" customHeight="1" spans="1:22">
-      <c r="A38" s="29">
-        <v>1</v>
-      </c>
-      <c r="B38" s="30">
-        <v>24</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="33" t="s">
-        <v>331</v>
+      <c r="A38" s="28">
+        <v>2</v>
+      </c>
+      <c r="B38" s="29">
+        <v>13</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>332</v>
       </c>
       <c r="F38" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="G38" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="H38" s="36" t="s">
+      <c r="G38" s="32" t="s">
         <v>334</v>
       </c>
+      <c r="H38" s="33"/>
       <c r="I38" s="58"/>
       <c r="J38" s="59"/>
       <c r="K38" s="60"/>

--- a/quiz_questions.xlsx
+++ b/quiz_questions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="331">
   <si>
     <t>カテゴリNo.</t>
   </si>
@@ -2487,30 +2487,6 @@
   </si>
   <si>
     <t>これから　3ねんかん　おせわに　なりました。どうも　ありがとうございました。</t>
-  </si>
-  <si>
-    <t>ssdbsb</t>
-  </si>
-  <si>
-    <t>sbfgnsfgnfg</t>
-  </si>
-  <si>
-    <t>sbgfsfgsfg</t>
-  </si>
-  <si>
-    <t>sdb</t>
-  </si>
-  <si>
-    <t>ssdfbfs</t>
-  </si>
-  <si>
-    <t>dsbfdbsdfb</t>
-  </si>
-  <si>
-    <t>sd sdfbf</t>
-  </si>
-  <si>
-    <t>Aiueo</t>
   </si>
   <si>
     <t>日常生活編</t>
@@ -4231,12 +4207,6 @@
       <color theme="1"/>
       <name val="Tahoma"/>
       <charset val="222"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4391,6 +4361,18 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="222"/>
     </font>
@@ -4404,12 +4386,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -4890,7 +4866,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right style="hair">
         <color auto="1"/>
       </right>
@@ -4906,7 +4884,22 @@
       <left style="hair">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top style="hair">
         <color auto="1"/>
       </top>
@@ -4919,24 +4912,7 @@
       <left style="hair">
         <color auto="1"/>
       </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="hair">
         <color auto="1"/>
       </top>
@@ -5061,137 +5037,137 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5274,115 +5250,112 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5424,16 +5397,16 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5784,14 +5757,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V39"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E28" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomRight" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -5833,40 +5806,40 @@
       <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="37" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="L1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="O1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="P1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="66" t="s">
+      <c r="Q1" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="67" t="s">
+      <c r="R1" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="68" t="s">
+      <c r="S1" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="69" t="s">
+      <c r="T1" s="68" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5895,30 +5868,30 @@
       <c r="H2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="45"/>
+      <c r="I2" s="44"/>
       <c r="J2" s="20"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="45"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="49" t="s">
+      <c r="N2" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="50" t="s">
+      <c r="O2" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="51" t="s">
+      <c r="P2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="70" t="s">
+      <c r="Q2" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="71" t="s">
+      <c r="R2" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="72"/>
-      <c r="T2" s="73"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="72"/>
       <c r="V2"/>
     </row>
     <row r="3" ht="70.05" customHeight="1" spans="1:22">
@@ -5946,26 +5919,26 @@
       <c r="H3" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="52"/>
+      <c r="I3" s="51"/>
       <c r="J3" s="20"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="54" t="s">
+      <c r="K3" s="52"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="55" t="s">
+      <c r="N3" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="56" t="s">
+      <c r="O3" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="75" t="s">
+      <c r="P3" s="56"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="77"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="76"/>
       <c r="V3"/>
     </row>
     <row r="4" ht="70.05" customHeight="1" spans="1:22">
@@ -5993,26 +5966,26 @@
       <c r="H4" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="52"/>
+      <c r="I4" s="51"/>
       <c r="J4" s="20"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="54" t="s">
+      <c r="K4" s="52"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="55" t="s">
+      <c r="N4" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="56" t="s">
+      <c r="O4" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="75" t="s">
+      <c r="P4" s="56"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="S4" s="76"/>
-      <c r="T4" s="77"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="76"/>
       <c r="V4"/>
     </row>
     <row r="5" ht="70.05" customHeight="1" spans="1:22">
@@ -6040,30 +6013,30 @@
       <c r="H5" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="52"/>
+      <c r="I5" s="51"/>
       <c r="J5" s="20"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="54" t="s">
+      <c r="K5" s="52"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="55" t="s">
+      <c r="N5" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="56" t="s">
+      <c r="O5" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="57" t="s">
+      <c r="P5" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="Q5" s="74" t="s">
+      <c r="Q5" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="R5" s="75" t="s">
+      <c r="R5" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="S5" s="76"/>
-      <c r="T5" s="77"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="76"/>
       <c r="V5"/>
     </row>
     <row r="6" ht="70.05" customHeight="1" spans="1:22">
@@ -6091,26 +6064,26 @@
       <c r="H6" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="52"/>
+      <c r="I6" s="51"/>
       <c r="J6" s="20"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="54" t="s">
+      <c r="K6" s="52"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="N6" s="55" t="s">
+      <c r="N6" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="O6" s="56" t="s">
+      <c r="O6" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="75" t="s">
+      <c r="P6" s="56"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="S6" s="76"/>
-      <c r="T6" s="77"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="76"/>
       <c r="V6"/>
     </row>
     <row r="7" ht="70.05" customHeight="1" spans="1:22">
@@ -6138,26 +6111,26 @@
       <c r="H7" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="52"/>
+      <c r="I7" s="51"/>
       <c r="J7" s="20"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="54" t="s">
+      <c r="K7" s="52"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="N7" s="55" t="s">
+      <c r="N7" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="O7" s="56" t="s">
+      <c r="O7" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="75" t="s">
+      <c r="P7" s="56"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="S7" s="76"/>
-      <c r="T7" s="77"/>
+      <c r="S7" s="75"/>
+      <c r="T7" s="76"/>
       <c r="V7"/>
     </row>
     <row r="8" ht="70.05" customHeight="1" spans="1:22">
@@ -6185,26 +6158,26 @@
       <c r="H8" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="52"/>
+      <c r="I8" s="51"/>
       <c r="J8" s="20"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="54" t="s">
+      <c r="K8" s="52"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="N8" s="55" t="s">
+      <c r="N8" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="O8" s="56" t="s">
+      <c r="O8" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="75" t="s">
+      <c r="P8" s="56"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="S8" s="76"/>
-      <c r="T8" s="77"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="76"/>
       <c r="V8"/>
     </row>
     <row r="9" ht="70.05" customHeight="1" spans="1:22">
@@ -6232,34 +6205,34 @@
       <c r="H9" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="I9" s="52" t="s">
+      <c r="I9" s="51" t="s">
         <v>82</v>
       </c>
       <c r="J9" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="K9" s="53"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="54" t="s">
+      <c r="K9" s="52"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="N9" s="55" t="s">
+      <c r="N9" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="O9" s="56"/>
-      <c r="P9" s="57" t="s">
+      <c r="O9" s="55"/>
+      <c r="P9" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="Q9" s="74" t="s">
+      <c r="Q9" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="R9" s="75" t="s">
+      <c r="R9" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="S9" s="76" t="s">
+      <c r="S9" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="T9" s="77"/>
+      <c r="T9" s="76"/>
       <c r="V9"/>
     </row>
     <row r="10" ht="70.05" customHeight="1" spans="1:22">
@@ -6287,32 +6260,32 @@
       <c r="H10" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I10" s="52" t="s">
+      <c r="I10" s="51" t="s">
         <v>91</v>
       </c>
       <c r="J10" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="K10" s="53" t="s">
+      <c r="K10" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="L10" s="47" t="s">
+      <c r="L10" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="M10" s="54" t="s">
+      <c r="M10" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="N10" s="55"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="75" t="s">
+      <c r="N10" s="54"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="S10" s="76" t="s">
+      <c r="S10" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="T10" s="77" t="s">
+      <c r="T10" s="76" t="s">
         <v>98</v>
       </c>
       <c r="V10"/>
@@ -6342,30 +6315,30 @@
       <c r="H11" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="I11" s="52" t="s">
+      <c r="I11" s="51" t="s">
         <v>103</v>
       </c>
       <c r="J11" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="K11" s="53"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="54" t="s">
+      <c r="K11" s="52"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="N11" s="55" t="s">
+      <c r="N11" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="O11" s="56"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="75" t="s">
+      <c r="O11" s="55"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="S11" s="76" t="s">
+      <c r="S11" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="T11" s="77"/>
+      <c r="T11" s="76"/>
       <c r="V11"/>
     </row>
     <row r="12" ht="70.05" customHeight="1" spans="1:22">
@@ -6393,32 +6366,32 @@
       <c r="H12" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="I12" s="52" t="s">
+      <c r="I12" s="51" t="s">
         <v>110</v>
       </c>
       <c r="J12" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="K12" s="53" t="s">
+      <c r="K12" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="L12" s="47" t="s">
+      <c r="L12" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="M12" s="54" t="s">
+      <c r="M12" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="N12" s="55"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="75" t="s">
+      <c r="N12" s="54"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="S12" s="76" t="s">
+      <c r="S12" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="T12" s="77" t="s">
+      <c r="T12" s="76" t="s">
         <v>112</v>
       </c>
       <c r="V12"/>
@@ -6448,30 +6421,30 @@
       <c r="H13" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="I13" s="52" t="s">
+      <c r="I13" s="51" t="s">
         <v>119</v>
       </c>
       <c r="J13" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="K13" s="53"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="54" t="s">
+      <c r="K13" s="52"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="N13" s="55" t="s">
+      <c r="N13" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="O13" s="56"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="74"/>
-      <c r="R13" s="75" t="s">
+      <c r="O13" s="55"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="S13" s="76" t="s">
+      <c r="S13" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="T13" s="77"/>
+      <c r="T13" s="76"/>
       <c r="V13"/>
     </row>
     <row r="14" ht="70.05" customHeight="1" spans="1:22">
@@ -6499,36 +6472,36 @@
       <c r="H14" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="I14" s="52" t="s">
+      <c r="I14" s="51" t="s">
         <v>128</v>
       </c>
       <c r="J14" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="K14" s="53" t="s">
+      <c r="K14" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="L14" s="47" t="s">
+      <c r="L14" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="M14" s="54" t="s">
+      <c r="M14" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="N14" s="55"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="57" t="s">
+      <c r="N14" s="54"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="Q14" s="74" t="s">
+      <c r="Q14" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="R14" s="75" t="s">
+      <c r="R14" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="S14" s="76" t="s">
+      <c r="S14" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="T14" s="77" t="s">
+      <c r="T14" s="76" t="s">
         <v>130</v>
       </c>
       <c r="V14"/>
@@ -6558,32 +6531,32 @@
       <c r="H15" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="I15" s="52" t="s">
+      <c r="I15" s="51" t="s">
         <v>138</v>
       </c>
       <c r="J15" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="K15" s="53" t="s">
+      <c r="K15" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="L15" s="47" t="s">
+      <c r="L15" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="M15" s="54" t="s">
+      <c r="M15" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="N15" s="55"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="75" t="s">
+      <c r="N15" s="54"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="S15" s="76" t="s">
+      <c r="S15" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="T15" s="77" t="s">
+      <c r="T15" s="76" t="s">
         <v>140</v>
       </c>
       <c r="V15"/>
@@ -6613,32 +6586,32 @@
       <c r="H16" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="I16" s="52" t="s">
+      <c r="I16" s="51" t="s">
         <v>149</v>
       </c>
       <c r="J16" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="K16" s="53" t="s">
+      <c r="K16" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="L16" s="47" t="s">
+      <c r="L16" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="M16" s="54" t="s">
+      <c r="M16" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="N16" s="55"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="75" t="s">
+      <c r="N16" s="54"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="S16" s="76" t="s">
+      <c r="S16" s="75" t="s">
         <v>154</v>
       </c>
-      <c r="T16" s="77" t="s">
+      <c r="T16" s="76" t="s">
         <v>155</v>
       </c>
       <c r="V16"/>
@@ -6666,26 +6639,26 @@
         <v>158</v>
       </c>
       <c r="H17" s="20"/>
-      <c r="I17" s="52"/>
+      <c r="I17" s="51"/>
       <c r="J17" s="20"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="54" t="s">
+      <c r="K17" s="52"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="N17" s="55" t="s">
+      <c r="N17" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="O17" s="56" t="s">
+      <c r="O17" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="75" t="s">
+      <c r="P17" s="56"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="S17" s="76"/>
-      <c r="T17" s="77"/>
+      <c r="S17" s="75"/>
+      <c r="T17" s="76"/>
       <c r="V17"/>
     </row>
     <row r="18" ht="70.05" customHeight="1" spans="1:22">
@@ -6711,26 +6684,26 @@
         <v>165</v>
       </c>
       <c r="H18" s="20"/>
-      <c r="I18" s="52"/>
+      <c r="I18" s="51"/>
       <c r="J18" s="20"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="54" t="s">
+      <c r="K18" s="52"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="N18" s="55" t="s">
+      <c r="N18" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="O18" s="56" t="s">
+      <c r="O18" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="74"/>
-      <c r="R18" s="75" t="s">
+      <c r="P18" s="56"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="S18" s="76"/>
-      <c r="T18" s="77"/>
+      <c r="S18" s="75"/>
+      <c r="T18" s="76"/>
       <c r="V18"/>
     </row>
     <row r="19" ht="70.05" customHeight="1" spans="1:22">
@@ -6758,30 +6731,30 @@
       <c r="H19" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="I19" s="52"/>
+      <c r="I19" s="51"/>
       <c r="J19" s="20"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="54" t="s">
+      <c r="K19" s="52"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="N19" s="55" t="s">
+      <c r="N19" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="O19" s="56" t="s">
+      <c r="O19" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="P19" s="57" t="s">
+      <c r="P19" s="56" t="s">
         <v>177</v>
       </c>
-      <c r="Q19" s="74" t="s">
+      <c r="Q19" s="73" t="s">
         <v>178</v>
       </c>
-      <c r="R19" s="75" t="s">
+      <c r="R19" s="74" t="s">
         <v>179</v>
       </c>
-      <c r="S19" s="76"/>
-      <c r="T19" s="77"/>
+      <c r="S19" s="75"/>
+      <c r="T19" s="76"/>
       <c r="V19"/>
     </row>
     <row r="20" ht="70.05" customHeight="1" spans="1:22">
@@ -6809,30 +6782,30 @@
       <c r="H20" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="I20" s="52" t="s">
+      <c r="I20" s="51" t="s">
         <v>184</v>
       </c>
       <c r="J20" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="K20" s="53"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="54" t="s">
+      <c r="K20" s="52"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="N20" s="55" t="s">
+      <c r="N20" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="O20" s="56"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="74"/>
-      <c r="R20" s="75" t="s">
+      <c r="O20" s="55"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="74" t="s">
         <v>188</v>
       </c>
-      <c r="S20" s="76" t="s">
+      <c r="S20" s="75" t="s">
         <v>189</v>
       </c>
-      <c r="T20" s="77"/>
+      <c r="T20" s="76"/>
       <c r="V20"/>
     </row>
     <row r="21" ht="70.05" customHeight="1" spans="1:22">
@@ -6860,26 +6833,26 @@
       <c r="H21" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="I21" s="52"/>
+      <c r="I21" s="51"/>
       <c r="J21" s="20"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="54" t="s">
+      <c r="K21" s="52"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="N21" s="55" t="s">
+      <c r="N21" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="O21" s="56" t="s">
+      <c r="O21" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="74"/>
-      <c r="R21" s="75" t="s">
+      <c r="P21" s="56"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="74" t="s">
         <v>197</v>
       </c>
-      <c r="S21" s="76"/>
-      <c r="T21" s="77"/>
+      <c r="S21" s="75"/>
+      <c r="T21" s="76"/>
       <c r="V21"/>
     </row>
     <row r="22" ht="70.05" customHeight="1" spans="1:22">
@@ -6907,26 +6880,26 @@
       <c r="H22" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="I22" s="52"/>
+      <c r="I22" s="51"/>
       <c r="J22" s="20"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="54" t="s">
+      <c r="K22" s="52"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="N22" s="55" t="s">
+      <c r="N22" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="O22" s="56" t="s">
+      <c r="O22" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="74"/>
-      <c r="R22" s="75" t="s">
+      <c r="P22" s="56"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="74" t="s">
         <v>200</v>
       </c>
-      <c r="S22" s="76"/>
-      <c r="T22" s="77"/>
+      <c r="S22" s="75"/>
+      <c r="T22" s="76"/>
       <c r="V22"/>
     </row>
     <row r="23" ht="70.05" customHeight="1" spans="1:22">
@@ -6954,26 +6927,26 @@
       <c r="H23" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="I23" s="52"/>
+      <c r="I23" s="51"/>
       <c r="J23" s="20"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="54" t="s">
+      <c r="K23" s="52"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="N23" s="55" t="s">
+      <c r="N23" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="O23" s="56" t="s">
+      <c r="O23" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="74"/>
-      <c r="R23" s="75" t="s">
+      <c r="P23" s="56"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="S23" s="76"/>
-      <c r="T23" s="77"/>
+      <c r="S23" s="75"/>
+      <c r="T23" s="76"/>
       <c r="V23"/>
     </row>
     <row r="24" ht="70.05" customHeight="1" spans="1:22">
@@ -7001,73 +6974,81 @@
       <c r="H24" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="I24" s="52"/>
+      <c r="I24" s="51"/>
       <c r="J24" s="20"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="54" t="s">
+      <c r="K24" s="52"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="N24" s="55" t="s">
+      <c r="N24" s="54" t="s">
         <v>217</v>
       </c>
-      <c r="O24" s="56" t="s">
+      <c r="O24" s="55" t="s">
         <v>218</v>
       </c>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="74"/>
-      <c r="R24" s="75" t="s">
+      <c r="P24" s="56"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="74" t="s">
         <v>214</v>
       </c>
-      <c r="S24" s="76"/>
-      <c r="T24" s="77"/>
+      <c r="S24" s="75"/>
+      <c r="T24" s="76"/>
       <c r="V24"/>
     </row>
     <row r="25" ht="70.05" customHeight="1" spans="1:22">
-      <c r="A25" s="28">
+      <c r="A25" s="21">
+        <v>2</v>
+      </c>
+      <c r="B25" s="21">
         <v>1</v>
       </c>
-      <c r="B25" s="29">
-        <v>24</v>
-      </c>
       <c r="C25" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="F25" s="31" t="s">
+      <c r="D25" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="G25" s="32" t="s">
+      <c r="E25" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="H25" s="33" t="s">
+      <c r="F25" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="I25" s="58"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="62" t="s">
+      <c r="G25" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="N25" s="63" t="s">
+      <c r="H25" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="O25" s="64" t="s">
+      <c r="I25" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="P25" s="65"/>
-      <c r="Q25" s="78"/>
-      <c r="R25" s="79" t="s">
+      <c r="J25" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="S25" s="80"/>
-      <c r="T25" s="81"/>
+      <c r="K25" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="L25" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="M25" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="N25" s="54"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="74" t="s">
+        <v>223</v>
+      </c>
+      <c r="S25" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="T25" s="76" t="s">
+        <v>227</v>
+      </c>
       <c r="V25"/>
     </row>
     <row r="26" ht="70.05" customHeight="1" spans="1:22">
@@ -7075,53 +7056,53 @@
         <v>2</v>
       </c>
       <c r="B26" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>228</v>
+        <v>219</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>220</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="I26" s="52" t="s">
         <v>233</v>
       </c>
+      <c r="I26" s="51" t="s">
+        <v>234</v>
+      </c>
       <c r="J26" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="K26" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="L26" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="M26" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="N26" s="54"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="74" t="s">
+        <v>239</v>
+      </c>
+      <c r="S26" s="75" t="s">
         <v>234</v>
       </c>
-      <c r="K26" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="L26" s="47" t="s">
-        <v>236</v>
-      </c>
-      <c r="M26" s="54" t="s">
-        <v>237</v>
-      </c>
-      <c r="N26" s="55"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="74"/>
-      <c r="R26" s="75" t="s">
-        <v>231</v>
-      </c>
-      <c r="S26" s="76" t="s">
-        <v>233</v>
-      </c>
-      <c r="T26" s="77" t="s">
-        <v>235</v>
+      <c r="T26" s="76" t="s">
+        <v>240</v>
       </c>
       <c r="V26"/>
     </row>
@@ -7130,54 +7111,50 @@
         <v>2</v>
       </c>
       <c r="B27" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="D27" s="34" t="s">
-        <v>228</v>
+        <v>219</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>220</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="I27" s="52" t="s">
-        <v>242</v>
+        <v>244</v>
+      </c>
+      <c r="I27" s="51" t="s">
+        <v>245</v>
       </c>
       <c r="J27" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="K27" s="52"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="53" t="s">
+        <v>247</v>
+      </c>
+      <c r="N27" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="O27" s="55"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="74" t="s">
         <v>243</v>
       </c>
-      <c r="K27" s="53" t="s">
-        <v>244</v>
-      </c>
-      <c r="L27" s="47" t="s">
+      <c r="S27" s="75" t="s">
         <v>245</v>
       </c>
-      <c r="M27" s="54" t="s">
-        <v>246</v>
-      </c>
-      <c r="N27" s="55"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="74"/>
-      <c r="R27" s="75" t="s">
-        <v>247</v>
-      </c>
-      <c r="S27" s="76" t="s">
-        <v>242</v>
-      </c>
-      <c r="T27" s="77" t="s">
-        <v>248</v>
-      </c>
+      <c r="T27" s="76"/>
       <c r="V27"/>
     </row>
     <row r="28" ht="70.05" customHeight="1" spans="1:22">
@@ -7185,13 +7162,13 @@
         <v>2</v>
       </c>
       <c r="B28" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>228</v>
+        <v>219</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>220</v>
       </c>
       <c r="E28" s="24" t="s">
         <v>249</v>
@@ -7205,30 +7182,30 @@
       <c r="H28" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="I28" s="52" t="s">
+      <c r="I28" s="51" t="s">
         <v>253</v>
       </c>
       <c r="J28" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="K28" s="53"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="54" t="s">
+      <c r="K28" s="52"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="53" t="s">
         <v>255</v>
       </c>
-      <c r="N28" s="55" t="s">
+      <c r="N28" s="54" t="s">
         <v>256</v>
       </c>
-      <c r="O28" s="56"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="74"/>
-      <c r="R28" s="75" t="s">
-        <v>251</v>
-      </c>
-      <c r="S28" s="76" t="s">
-        <v>253</v>
-      </c>
-      <c r="T28" s="77"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="73"/>
+      <c r="R28" s="74" t="s">
+        <v>257</v>
+      </c>
+      <c r="S28" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="T28" s="76"/>
       <c r="V28"/>
     </row>
     <row r="29" ht="70.05" customHeight="1" spans="1:22">
@@ -7236,50 +7213,50 @@
         <v>2</v>
       </c>
       <c r="B29" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>228</v>
+        <v>219</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>220</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G29" s="26" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="I29" s="52" t="s">
+        <v>262</v>
+      </c>
+      <c r="I29" s="51" t="s">
+        <v>263</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="K29" s="52"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="53" t="s">
+        <v>265</v>
+      </c>
+      <c r="N29" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="O29" s="55"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="73"/>
+      <c r="R29" s="74" t="s">
         <v>261</v>
       </c>
-      <c r="J29" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="K29" s="53"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="54" t="s">
-        <v>263</v>
-      </c>
-      <c r="N29" s="55" t="s">
-        <v>264</v>
-      </c>
-      <c r="O29" s="56"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="74"/>
-      <c r="R29" s="75" t="s">
-        <v>265</v>
-      </c>
-      <c r="S29" s="76" t="s">
-        <v>266</v>
-      </c>
-      <c r="T29" s="77"/>
+      <c r="S29" s="75" t="s">
+        <v>267</v>
+      </c>
+      <c r="T29" s="76"/>
       <c r="V29"/>
     </row>
     <row r="30" ht="70.05" customHeight="1" spans="1:22">
@@ -7287,50 +7264,50 @@
         <v>2</v>
       </c>
       <c r="B30" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>228</v>
+        <v>219</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>220</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H30" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="I30" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="K30" s="52"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="53" t="s">
+        <v>274</v>
+      </c>
+      <c r="N30" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="O30" s="55"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="74" t="s">
         <v>270</v>
       </c>
-      <c r="I30" s="52" t="s">
-        <v>271</v>
-      </c>
-      <c r="J30" s="20" t="s">
+      <c r="S30" s="75" t="s">
         <v>272</v>
       </c>
-      <c r="K30" s="53"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="54" t="s">
-        <v>273</v>
-      </c>
-      <c r="N30" s="55" t="s">
-        <v>274</v>
-      </c>
-      <c r="O30" s="56"/>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="74"/>
-      <c r="R30" s="75" t="s">
-        <v>269</v>
-      </c>
-      <c r="S30" s="76" t="s">
-        <v>275</v>
-      </c>
-      <c r="T30" s="77"/>
+      <c r="T30" s="76"/>
       <c r="V30"/>
     </row>
     <row r="31" ht="70.05" customHeight="1" spans="1:22">
@@ -7338,13 +7315,13 @@
         <v>2</v>
       </c>
       <c r="B31" s="21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="D31" s="34" t="s">
-        <v>228</v>
+        <v>219</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>220</v>
       </c>
       <c r="E31" s="24" t="s">
         <v>276</v>
@@ -7358,30 +7335,30 @@
       <c r="H31" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="I31" s="52" t="s">
+      <c r="I31" s="51" t="s">
         <v>280</v>
       </c>
       <c r="J31" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="K31" s="53"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="54" t="s">
+      <c r="K31" s="52"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="53" t="s">
         <v>282</v>
       </c>
-      <c r="N31" s="55" t="s">
+      <c r="N31" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="O31" s="55"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="74" t="s">
+        <v>278</v>
+      </c>
+      <c r="S31" s="75" t="s">
         <v>283</v>
       </c>
-      <c r="O31" s="56"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="74"/>
-      <c r="R31" s="75" t="s">
-        <v>278</v>
-      </c>
-      <c r="S31" s="76" t="s">
-        <v>280</v>
-      </c>
-      <c r="T31" s="77"/>
+      <c r="T31" s="76"/>
       <c r="V31"/>
     </row>
     <row r="32" ht="70.05" customHeight="1" spans="1:22">
@@ -7389,13 +7366,13 @@
         <v>2</v>
       </c>
       <c r="B32" s="21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="D32" s="34" t="s">
-        <v>228</v>
+        <v>219</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>220</v>
       </c>
       <c r="E32" s="24" t="s">
         <v>284</v>
@@ -7409,30 +7386,26 @@
       <c r="H32" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="I32" s="52" t="s">
+      <c r="I32" s="51"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="J32" s="20" t="s">
+      <c r="N32" s="54" t="s">
         <v>289</v>
       </c>
-      <c r="K32" s="53"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="54" t="s">
+      <c r="O32" s="55" t="s">
         <v>290</v>
       </c>
-      <c r="N32" s="55" t="s">
-        <v>264</v>
-      </c>
-      <c r="O32" s="56"/>
-      <c r="P32" s="57"/>
-      <c r="Q32" s="74"/>
-      <c r="R32" s="75" t="s">
+      <c r="P32" s="56"/>
+      <c r="Q32" s="73"/>
+      <c r="R32" s="74" t="s">
         <v>286</v>
       </c>
-      <c r="S32" s="76" t="s">
-        <v>291</v>
-      </c>
-      <c r="T32" s="77"/>
+      <c r="S32" s="75"/>
+      <c r="T32" s="76"/>
       <c r="V32"/>
     </row>
     <row r="33" ht="70.05" customHeight="1" spans="1:22">
@@ -7440,46 +7413,46 @@
         <v>2</v>
       </c>
       <c r="B33" s="21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>228</v>
+        <v>219</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>220</v>
       </c>
       <c r="E33" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="F33" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="G33" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="G33" s="26" t="s">
+      <c r="H33" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="H33" s="20" t="s">
+      <c r="I33" s="51"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="53" t="s">
         <v>295</v>
       </c>
-      <c r="I33" s="52"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="54" t="s">
+      <c r="N33" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="N33" s="55" t="s">
+      <c r="O33" s="55" t="s">
         <v>297</v>
       </c>
-      <c r="O33" s="56" t="s">
+      <c r="P33" s="56"/>
+      <c r="Q33" s="73"/>
+      <c r="R33" s="74" t="s">
         <v>298</v>
       </c>
-      <c r="P33" s="57"/>
-      <c r="Q33" s="74"/>
-      <c r="R33" s="75" t="s">
-        <v>294</v>
-      </c>
-      <c r="S33" s="76"/>
-      <c r="T33" s="77"/>
+      <c r="S33" s="75"/>
+      <c r="T33" s="76"/>
       <c r="V33"/>
     </row>
     <row r="34" ht="70.05" customHeight="1" spans="1:22">
@@ -7487,13 +7460,13 @@
         <v>2</v>
       </c>
       <c r="B34" s="21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="D34" s="34" t="s">
-        <v>228</v>
+        <v>219</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>220</v>
       </c>
       <c r="E34" s="24" t="s">
         <v>299</v>
@@ -7507,26 +7480,30 @@
       <c r="H34" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="I34" s="52"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="54" t="s">
+      <c r="I34" s="51" t="s">
         <v>303</v>
       </c>
-      <c r="N34" s="55" t="s">
+      <c r="J34" s="20" t="s">
         <v>304</v>
       </c>
-      <c r="O34" s="56" t="s">
+      <c r="K34" s="52"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="53" t="s">
         <v>305</v>
       </c>
-      <c r="P34" s="57"/>
-      <c r="Q34" s="74"/>
-      <c r="R34" s="75" t="s">
+      <c r="N34" s="54" t="s">
         <v>306</v>
       </c>
-      <c r="S34" s="76"/>
-      <c r="T34" s="77"/>
+      <c r="O34" s="55"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="73"/>
+      <c r="R34" s="74" t="s">
+        <v>301</v>
+      </c>
+      <c r="S34" s="75" t="s">
+        <v>307</v>
+      </c>
+      <c r="T34" s="76"/>
       <c r="V34"/>
     </row>
     <row r="35" ht="70.05" customHeight="1" spans="1:22">
@@ -7534,50 +7511,46 @@
         <v>2</v>
       </c>
       <c r="B35" s="21">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="D35" s="34" t="s">
-        <v>228</v>
+        <v>219</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>220</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H35" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="I35" s="51"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="53" t="s">
+        <v>312</v>
+      </c>
+      <c r="N35" s="54" t="s">
+        <v>313</v>
+      </c>
+      <c r="O35" s="55" t="s">
+        <v>314</v>
+      </c>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="73"/>
+      <c r="R35" s="74" t="s">
         <v>310</v>
       </c>
-      <c r="I35" s="52" t="s">
-        <v>311</v>
-      </c>
-      <c r="J35" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="K35" s="53"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="54" t="s">
-        <v>313</v>
-      </c>
-      <c r="N35" s="55" t="s">
-        <v>314</v>
-      </c>
-      <c r="O35" s="56"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="74"/>
-      <c r="R35" s="75" t="s">
-        <v>309</v>
-      </c>
-      <c r="S35" s="76" t="s">
-        <v>315</v>
-      </c>
-      <c r="T35" s="77"/>
+      <c r="S35" s="75"/>
+      <c r="T35" s="76"/>
       <c r="V35"/>
     </row>
     <row r="36" ht="70.05" customHeight="1" spans="1:22">
@@ -7585,145 +7558,98 @@
         <v>2</v>
       </c>
       <c r="B36" s="21">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="D36" s="34" t="s">
-        <v>228</v>
+        <v>219</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>220</v>
       </c>
       <c r="E36" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="F36" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="F36" s="25" t="s">
+      <c r="G36" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="G36" s="26" t="s">
+      <c r="H36" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="H36" s="20" t="s">
+      <c r="I36" s="51" t="s">
         <v>319</v>
       </c>
-      <c r="I36" s="52"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="54" t="s">
+      <c r="J36" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="N36" s="55" t="s">
+      <c r="K36" s="52"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="53" t="s">
         <v>321</v>
       </c>
-      <c r="O36" s="56" t="s">
+      <c r="N36" s="54" t="s">
         <v>322</v>
       </c>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="74"/>
-      <c r="R36" s="75" t="s">
-        <v>318</v>
-      </c>
-      <c r="S36" s="76"/>
-      <c r="T36" s="77"/>
+      <c r="O36" s="55"/>
+      <c r="P36" s="56"/>
+      <c r="Q36" s="73"/>
+      <c r="R36" s="74" t="s">
+        <v>317</v>
+      </c>
+      <c r="S36" s="75" t="s">
+        <v>323</v>
+      </c>
+      <c r="T36" s="76"/>
       <c r="V36"/>
     </row>
     <row r="37" ht="70.05" customHeight="1" spans="1:22">
-      <c r="A37" s="21">
+      <c r="A37" s="29">
         <v>2</v>
       </c>
-      <c r="B37" s="21">
-        <v>12</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="D37" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>323</v>
-      </c>
-      <c r="F37" s="25" t="s">
+      <c r="B37" s="30">
+        <v>13</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="E37" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="G37" s="26" t="s">
+      <c r="F37" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="H37" s="20" t="s">
+      <c r="G37" s="35" t="s">
         <v>326</v>
       </c>
-      <c r="I37" s="52" t="s">
+      <c r="H37" s="36"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="61" t="s">
         <v>327</v>
       </c>
-      <c r="J37" s="20" t="s">
+      <c r="N37" s="62" t="s">
         <v>328</v>
       </c>
-      <c r="K37" s="53"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="54" t="s">
+      <c r="O37" s="63" t="s">
         <v>329</v>
       </c>
-      <c r="N37" s="55" t="s">
+      <c r="P37" s="64"/>
+      <c r="Q37" s="77"/>
+      <c r="R37" s="78" t="s">
         <v>330</v>
       </c>
-      <c r="O37" s="56"/>
-      <c r="P37" s="57"/>
-      <c r="Q37" s="74"/>
-      <c r="R37" s="75" t="s">
-        <v>325</v>
-      </c>
-      <c r="S37" s="76" t="s">
-        <v>331</v>
-      </c>
-      <c r="T37" s="77"/>
+      <c r="S37" s="79"/>
+      <c r="T37" s="80"/>
       <c r="V37"/>
     </row>
-    <row r="38" ht="70.05" customHeight="1" spans="1:22">
-      <c r="A38" s="28">
-        <v>2</v>
-      </c>
-      <c r="B38" s="29">
-        <v>13</v>
-      </c>
-      <c r="C38" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="D38" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="E38" s="30" t="s">
-        <v>332</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>333</v>
-      </c>
-      <c r="G38" s="32" t="s">
-        <v>334</v>
-      </c>
-      <c r="H38" s="33"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="61"/>
-      <c r="M38" s="62" t="s">
-        <v>335</v>
-      </c>
-      <c r="N38" s="63" t="s">
-        <v>336</v>
-      </c>
-      <c r="O38" s="64" t="s">
-        <v>337</v>
-      </c>
-      <c r="P38" s="65"/>
-      <c r="Q38" s="78"/>
-      <c r="R38" s="79" t="s">
-        <v>338</v>
-      </c>
-      <c r="S38" s="80"/>
-      <c r="T38" s="81"/>
-      <c r="V38"/>
-    </row>
-    <row r="39" ht="70.05" customHeight="1"/>
+    <row r="38" ht="70.05" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/quiz_questions.xlsx
+++ b/quiz_questions.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshi\ATP-app\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14F412C-9B79-49EB-8627-E77690500664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView xWindow="5136" yWindow="1020" windowWidth="15072" windowHeight="10812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="340">
   <si>
     <t>カテゴリNo.</t>
   </si>
@@ -97,7 +101,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>หมวดชีวิตผู้ฝึกงาน</t>
     </r>
@@ -111,7 +116,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณมาถึงประเทศญี่ปุ่นแล้ว</t>
     </r>
@@ -120,6 +125,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -129,7 +135,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>มีเจ้าหน้าที่สหกรณ์มารับที่สนามบิน</t>
     </r>
@@ -138,6 +144,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -147,7 +154,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>อย่างแรกคุณจะพูดว่าอะไร</t>
     </r>
@@ -170,7 +177,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>ก่อนอื่น</t>
     </r>
@@ -179,6 +187,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -188,7 +197,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>แนะนำตัวเองแบบยาวๆ</t>
     </r>
@@ -208,7 +218,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ที่โรงเรียนของ</t>
     </r>
@@ -217,6 +227,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> ATP </t>
@@ -226,7 +237,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>หรือของสหกรณ์</t>
     </r>
@@ -235,6 +246,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -244,7 +256,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>เมื่อลูกค้าหรือครูพูดว่า</t>
     </r>
@@ -253,6 +265,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>べんきょう、がんばってください。</t>
@@ -262,7 +275,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณจะตอบว่าอย่างไร</t>
     </r>
@@ -271,6 +284,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>?</t>
@@ -300,7 +314,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>วันนี้เป็นวันแรกที่คุณเข้าทำงานที่บริษัท</t>
     </r>
@@ -309,6 +323,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -318,7 +333,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณจะทักทายทุกคนว่าอย่างไร</t>
     </r>
@@ -327,6 +342,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>?</t>
@@ -360,7 +376,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>เมื่อคนญี่ปุ่นที่บริษัทหรือสหกรณ์กล่าวว่า</t>
     </r>
@@ -369,6 +385,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> '</t>
@@ -378,7 +395,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ยินดีที่ได้รู้จัก</t>
     </r>
@@ -387,6 +404,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -396,7 +414,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ผม</t>
     </r>
@@ -405,6 +423,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>/</t>
@@ -414,7 +433,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ฉันชื่อยามาดะ</t>
     </r>
@@ -423,6 +442,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -432,7 +452,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ฝากเนื้อฝากตัวด้วยนะครับ</t>
     </r>
@@ -441,6 +461,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>/</t>
@@ -450,7 +471,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คะ</t>
     </r>
@@ -459,6 +480,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">' </t>
@@ -468,7 +490,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณจะตอบว่าอย่างไร</t>
     </r>
@@ -477,6 +499,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>?</t>
@@ -512,7 +535,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณมีไข้และรู้สึกไม่สบายระหว่างทำงาน</t>
     </r>
@@ -521,6 +544,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -530,7 +554,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>อยากกลับบ้านก่อน</t>
     </r>
@@ -539,6 +563,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -548,7 +573,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณจะพูดกับหัวหน้ายังไง</t>
     </r>
@@ -557,6 +582,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>?</t>
@@ -589,7 +615,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณมีไข้</t>
     </r>
@@ -598,6 +624,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -607,7 +634,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>จึงอยากหยุดงาน</t>
     </r>
@@ -616,6 +643,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -625,7 +653,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณจะพูดกับหัวหน้าทางโทรศัพท์ว่าอย่างไร</t>
     </r>
@@ -634,6 +662,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>?</t>
@@ -667,7 +696,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณรู้สึกไม่สบาย</t>
     </r>
@@ -676,6 +705,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -685,7 +715,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>แต่ไม่สามารถไปโรงพยาบาลคนเดียวได้</t>
     </r>
@@ -694,6 +724,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -703,7 +734,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ควรบอกกับเจ้าหน้าที่สหกรณ์ว่าอย่างไร</t>
     </r>
@@ -712,6 +743,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>?</t>
@@ -741,7 +773,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ขณะทำงาน</t>
     </r>
@@ -750,6 +782,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -759,7 +792,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณรู้สึกปวดท้องจนต้องไปเข้าห้องน้ำให้ได้</t>
     </r>
@@ -768,6 +801,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -777,7 +811,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณจะพูดกับหัวหน้าอย่างไร</t>
     </r>
@@ -786,6 +820,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>?(</t>
@@ -795,7 +830,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คำตอบที่ถูกต้อง</t>
     </r>
@@ -804,6 +839,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>2</t>
@@ -813,7 +849,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ข้อ</t>
     </r>
@@ -822,6 +858,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>)</t>
@@ -851,7 +888,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ประโยค</t>
     </r>
@@ -860,7 +897,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="222"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -869,7 +906,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>“</t>
     </r>
@@ -878,6 +915,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>トイレにいってもいいですか。”</t>
@@ -887,7 +925,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -896,7 +934,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ก็ไม่ผิดแต่ประโยค</t>
     </r>
@@ -905,7 +943,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="222"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -914,7 +952,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>“</t>
     </r>
@@ -923,6 +961,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>すみませんが、トイレに　いかせていただけませんか。”</t>
@@ -932,7 +971,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -941,7 +980,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>กับ</t>
     </r>
@@ -950,7 +989,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="222"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -959,7 +998,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>“</t>
     </r>
@@ -968,6 +1007,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>すみませんが、トイレに　いかせてくださいませんか。”</t>
@@ -977,7 +1017,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -986,7 +1026,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>สุภาพกว่าและดีกว่า</t>
     </r>
@@ -1000,7 +1040,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>หัวหน้าหรือรุ่นพี่ชาวญี่ปุ่นพูดเร็วเกินไปจนคุณฟังไม่ทัน</t>
     </r>
@@ -1009,6 +1049,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -1018,7 +1059,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณจะพูดว่าอย่างไร</t>
     </r>
@@ -1027,6 +1068,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>?(</t>
@@ -1036,7 +1078,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คำตอบที่ถูกต้อง</t>
     </r>
@@ -1045,6 +1087,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>3</t>
@@ -1054,7 +1097,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ข้อ</t>
     </r>
@@ -1063,6 +1106,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>)</t>
@@ -1107,7 +1151,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ทำงานผิดพลาดระหว่างเวลางาน</t>
     </r>
@@ -1116,6 +1160,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -1125,7 +1170,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ควรพูดกับหัวหน้ายังไงดี</t>
     </r>
@@ -1134,6 +1179,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>?(</t>
@@ -1143,7 +1189,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คำตอบที่ถูกต้อง</t>
     </r>
@@ -1152,6 +1198,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>2</t>
@@ -1161,7 +1208,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ข้อ</t>
     </r>
@@ -1170,6 +1217,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>)</t>
@@ -1199,7 +1247,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>เครื่องซักผ้าในหอพักของบริษัทที่ญี่ปุ่นเสีย</t>
     </r>
@@ -1208,6 +1256,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -1217,7 +1266,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณจะบอกกับเจ้าหน้าที่บริษัทหรือสหกรณ์ว่าอย่างไร</t>
     </r>
@@ -1226,6 +1275,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>?(</t>
@@ -1235,7 +1285,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คำตอบที่ถูกต้อง</t>
     </r>
@@ -1244,6 +1294,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>3</t>
@@ -1253,7 +1304,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ข้อ</t>
     </r>
@@ -1262,6 +1313,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>)</t>
@@ -1297,7 +1349,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>น้ำในหอพักของบริษัทที่ญี่ปุ่นไม่ไหล</t>
     </r>
@@ -1306,6 +1358,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -1315,7 +1368,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณจะบอกกับเจ้าหน้าที่บริษัทหรือสหกรณ์ว่าอย่างไร</t>
     </r>
@@ -1324,6 +1377,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>?(</t>
@@ -1333,7 +1387,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คำตอบที่ถูกต้อง</t>
     </r>
@@ -1342,6 +1396,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>2</t>
@@ -1351,7 +1406,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ข้อ</t>
     </r>
@@ -1360,6 +1415,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>)</t>
@@ -1395,7 +1451,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณอยากทานข้าวกับรุ่นพี่และเพื่อนร่วมงานชาวญี่ปุ่นที่โรงอาหารของบริษัท</t>
     </r>
@@ -1404,6 +1460,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -1413,7 +1470,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ก่อนที่จะนั่งที่โต๊ะที่เพื่อนร่วมงานนั่งอยู่</t>
     </r>
@@ -1422,6 +1479,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -1431,7 +1489,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณจะพูดว่าอย่างไร</t>
     </r>
@@ -1440,6 +1498,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>?(</t>
@@ -1449,7 +1508,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คำตอบที่ถูกต้อง</t>
     </r>
@@ -1458,6 +1517,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>3</t>
@@ -1467,7 +1527,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ข้อ</t>
     </r>
@@ -1476,6 +1536,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>)</t>
@@ -1514,7 +1575,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณอ่านตัวอักษรคันจิในเอกสารไม่ได้</t>
     </r>
@@ -1523,6 +1584,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -1532,7 +1594,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณจะพูดกับคนญี่ปุ่นที่อยู่รอบ</t>
     </r>
@@ -1541,6 +1603,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -1550,7 +1613,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ๆ</t>
     </r>
@@ -1559,6 +1622,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -1568,7 +1632,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ว่าอย่างไร</t>
     </r>
@@ -1577,6 +1641,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>?(</t>
@@ -1586,7 +1651,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คำตอบที่ถูกต้อง</t>
     </r>
@@ -1595,6 +1660,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>3</t>
@@ -1604,7 +1670,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ข้อ</t>
     </r>
@@ -1613,6 +1679,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>)</t>
@@ -1654,7 +1721,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณไม่เข้าใจความหมายของป้ายในโรงงาน</t>
     </r>
@@ -1663,6 +1730,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -1672,7 +1740,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณจะถามคนญี่ปุ่นรอบ</t>
     </r>
@@ -1681,6 +1749,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -1690,7 +1759,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ๆ</t>
     </r>
@@ -1699,6 +1768,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -1708,7 +1778,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ว่าอย่างไร</t>
     </r>
@@ -1717,6 +1787,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>?(</t>
@@ -1726,7 +1797,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คำตอบที่ถูกต้อง</t>
     </r>
@@ -1735,6 +1806,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>3</t>
@@ -1744,7 +1816,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ข้อ</t>
     </r>
@@ -1753,6 +1825,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>)</t>
@@ -1794,7 +1867,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณจะได้รับการเลี้ยงอาหารจากหัวหน้าหรือรุ่นพี่</t>
     </r>
@@ -1803,6 +1876,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -1812,7 +1886,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ก่อนเริ่มรับประทานอาหารควรทำอย่างไร</t>
     </r>
@@ -1821,6 +1895,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>?</t>
@@ -1850,7 +1925,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณได้รับการเลี้ยงอาหารจากหัวหน้าหรือรุ่นพี่</t>
     </r>
@@ -1859,6 +1934,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -1868,7 +1944,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>หลังจากทานเสร็จควรทำอย่างไร</t>
     </r>
@@ -1877,6 +1953,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>?</t>
@@ -1906,7 +1983,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>วันนี้เป็นวันทำงานแรกของปีใหม่</t>
     </r>
@@ -1915,6 +1992,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -1924,7 +2002,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณจะทักทายเพื่อนร่วมงานในบริษัทว่าอย่างไร</t>
     </r>
@@ -1933,6 +2011,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>?</t>
@@ -1971,7 +2050,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>วันนี้เป็นวันทำงานวันสุดท้ายของปีนี้</t>
     </r>
@@ -1980,6 +2059,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -1989,7 +2069,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณจะทักทายเพื่อนร่วมงานในบริษัทว่าอย่างไร</t>
     </r>
@@ -1998,6 +2078,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>?(</t>
@@ -2007,7 +2088,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คำตอบที่ถูกต้อง</t>
     </r>
@@ -2016,6 +2097,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>2</t>
@@ -2025,7 +2107,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ข้อ</t>
     </r>
@@ -2034,6 +2116,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>)</t>
@@ -2072,7 +2155,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>วันนี้เป็นวันเกิดของหัวหน้า</t>
     </r>
@@ -2081,6 +2164,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> (</t>
@@ -2090,7 +2174,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>เช่น</t>
     </r>
@@ -2099,6 +2183,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -2108,7 +2193,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>หัวหน้าฝ่าย</t>
     </r>
@@ -2117,6 +2202,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">) </t>
@@ -2126,7 +2212,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณจะพูดว่าอย่างไร</t>
     </r>
@@ -2135,6 +2221,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>?</t>
@@ -2167,7 +2254,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>วันนี้หัวหน้า</t>
     </r>
@@ -2176,6 +2263,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> (</t>
@@ -2185,7 +2273,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>เช่น</t>
     </r>
@@ -2194,6 +2282,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -2203,7 +2292,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>หัวหน้าฝ่าย</t>
     </r>
@@ -2212,6 +2301,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">) </t>
@@ -2221,7 +2311,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>รู้สึกไม่สบาย</t>
     </r>
@@ -2230,6 +2320,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -2239,7 +2330,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>จึงขอกลับก่อน</t>
     </r>
@@ -2248,6 +2339,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> (</t>
@@ -2257,7 +2349,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>หรือหยุดงาน</t>
     </r>
@@ -2266,6 +2358,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">) </t>
@@ -2275,7 +2368,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณจะพูดว่าอย่างไร</t>
     </r>
@@ -2284,6 +2377,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>?</t>
@@ -2313,7 +2407,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณเจอเจ้าหน้าที่สหกรณ์</t>
     </r>
@@ -2322,6 +2416,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> (</t>
@@ -2331,7 +2426,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>เช่น</t>
     </r>
@@ -2340,6 +2435,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -2349,7 +2445,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณยามาดะ</t>
     </r>
@@ -2358,6 +2454,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">) </t>
@@ -2367,7 +2464,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>หลังจากไม่ได้เจอกันนาน</t>
     </r>
@@ -2376,6 +2473,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -2385,7 +2483,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ๆ</t>
     </r>
@@ -2394,6 +2492,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -2403,7 +2502,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณจะทักทายว่าอย่างไร</t>
     </r>
@@ -2412,6 +2511,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>?</t>
@@ -2441,7 +2541,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>วันนี้เป็นวันสุดท้ายของการเป็นผู้ฝึกงาน</t>
     </r>
@@ -2450,6 +2550,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -2459,7 +2560,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณจะทักทายหรือกล่าวขอบคุณกับบริษัทและเจ้าหน้าที่สหกรณ์ว่าอย่างไร</t>
     </r>
@@ -2468,6 +2569,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>?</t>
@@ -2503,7 +2605,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณกำลังจะเดินทางโดยรถไฟ</t>
     </r>
@@ -2512,6 +2614,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -2521,7 +2624,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>อยากซื้อบัตร</t>
     </r>
@@ -2530,6 +2633,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> SUICA (</t>
@@ -2539,7 +2643,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>บัตรเติมเงินสำหรับเดินทาง</t>
     </r>
@@ -2548,6 +2652,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">) </t>
@@ -2557,7 +2662,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>แต่ไม่รู้ว่าซื้อได้ที่ไหน</t>
     </r>
@@ -2566,6 +2671,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -2575,7 +2681,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณจะถามเจ้าหน้าที่สถานีหรือคนรอบ</t>
     </r>
@@ -2584,6 +2690,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -2593,7 +2700,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ๆ</t>
     </r>
@@ -2602,6 +2709,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -2611,7 +2719,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ว่าอย่างไร</t>
     </r>
@@ -2620,6 +2728,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>?</t>
@@ -2629,7 +2738,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -2638,7 +2747,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="222"/>
+        <family val="2"/>
       </rPr>
       <t>คำตอบที่ถูกต้อง</t>
     </r>
@@ -2647,7 +2756,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -2656,7 +2765,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="222"/>
+        <family val="2"/>
       </rPr>
       <t>ข้อ</t>
     </r>
@@ -2665,7 +2774,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2700,7 +2809,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ไม่รู้ว่าต้องขึ้นรถไฟสายไหนเพื่อไปยังสถานีปลายทาง</t>
     </r>
@@ -2709,6 +2818,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> (</t>
@@ -2718,7 +2828,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>เช่น</t>
     </r>
@@ -2727,6 +2837,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -2736,7 +2847,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>สถานีโตเกียว</t>
     </r>
@@ -2745,6 +2856,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">) </t>
@@ -2754,7 +2866,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณจะถามเจ้าหน้าที่สถานีว่าอย่างไร</t>
     </r>
@@ -2763,6 +2875,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>?(</t>
@@ -2772,7 +2885,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คำตอบที่ถูกต้อง</t>
     </r>
@@ -2781,6 +2894,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>3</t>
@@ -2790,7 +2904,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ข้อ</t>
     </r>
@@ -2799,6 +2913,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>)</t>
@@ -2840,7 +2955,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณจะนั่งรถไฟไปห้างสรรพสินค้า</t>
     </r>
@@ -2849,6 +2964,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> ABC </t>
@@ -2858,7 +2974,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>แต่ไม่รู้ว่าควรลงที่สถานีไหน</t>
     </r>
@@ -2867,6 +2983,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -2876,7 +2993,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณจะถามเจ้าหน้าที่สถานีว่าอย่างไร</t>
     </r>
@@ -2885,6 +3002,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>?(</t>
@@ -2894,7 +3012,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คำตอบที่ถูกต้อง</t>
     </r>
@@ -2903,6 +3021,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>2</t>
@@ -2912,7 +3031,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ข้อ</t>
     </r>
@@ -2921,6 +3040,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>)</t>
@@ -2953,7 +3073,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณหลงทาง</t>
     </r>
@@ -2962,6 +3082,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -2971,7 +3092,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>อยากกลับไปที่สถานีรถไฟก่อน</t>
     </r>
@@ -2980,6 +3101,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -2989,7 +3111,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณจะพูดกับคนที่อยู่ใกล้</t>
     </r>
@@ -2998,6 +3120,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -3007,7 +3130,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ๆ</t>
     </r>
@@ -3016,6 +3139,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -3025,7 +3149,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ว่าอย่างไร</t>
     </r>
@@ -3034,6 +3158,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>?(</t>
@@ -3043,7 +3168,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คำตอบที่ถูกต้อง</t>
     </r>
@@ -3052,6 +3177,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>2</t>
@@ -3061,7 +3187,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ข้อ</t>
     </r>
@@ -3070,6 +3196,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>)</t>
@@ -3108,7 +3235,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณอยู่ที่ซุปเปอร์มาร์เก็ต</t>
     </r>
@@ -3117,6 +3244,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -3126,7 +3254,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>อยากซื้อซอสโชยุแต่ไม่รู้ว่ามันอยู่ที่ไหน</t>
     </r>
@@ -3135,6 +3263,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -3144,7 +3273,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณจะถามพนักงานว่าอย่างไร</t>
     </r>
@@ -3153,6 +3282,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>?(</t>
@@ -3162,7 +3292,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คำตอบที่ถูกต้อง</t>
     </r>
@@ -3171,6 +3301,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>2</t>
@@ -3180,7 +3311,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ข้อ</t>
     </r>
@@ -3189,6 +3320,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>)</t>
@@ -3224,7 +3356,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>มาช้อปปิ้ง</t>
     </r>
@@ -3233,6 +3365,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -3242,7 +3375,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>จะจ่ายเงินด้วยบัตร</t>
     </r>
@@ -3251,6 +3384,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> SUICA (</t>
@@ -3260,7 +3394,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>บัตรเติมเงินสำหรับเดินทาง</t>
     </r>
@@ -3269,6 +3403,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">) </t>
@@ -3278,7 +3413,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ไม่ใช้เงินสด</t>
     </r>
@@ -3287,6 +3422,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -3296,7 +3432,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณจะพูดกับพนักงานที่แคชเชียร์ว่าอย่างไร</t>
     </r>
@@ -3305,6 +3441,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>?(</t>
@@ -3314,7 +3451,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คำตอบที่ถูกต้อง</t>
     </r>
@@ -3323,6 +3460,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>2</t>
@@ -3332,7 +3470,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ข้อ</t>
     </r>
@@ -3341,6 +3479,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>)</t>
@@ -3373,7 +3512,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณไม่แน่ใจว่าถนนที่เดินอยู่ตอนนี้ไปยังจุดหมาย</t>
     </r>
@@ -3382,6 +3521,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> (</t>
@@ -3391,7 +3531,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>เช่น</t>
     </r>
@@ -3400,6 +3540,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -3409,7 +3550,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>สถานีรถไฟ</t>
     </r>
@@ -3418,6 +3559,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">) </t>
@@ -3427,7 +3569,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ได้หรือไม่</t>
     </r>
@@ -3436,6 +3578,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -3445,7 +3588,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>จึงถามคนญี่ปุ่นรอบ</t>
     </r>
@@ -3454,6 +3597,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -3463,7 +3607,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ๆ</t>
     </r>
@@ -3472,6 +3616,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -3481,7 +3626,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ว่าอย่างไร</t>
     </r>
@@ -3490,6 +3635,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>?(</t>
@@ -3499,7 +3645,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คำตอบที่ถูกต้อง</t>
     </r>
@@ -3508,6 +3654,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>2</t>
@@ -3517,7 +3664,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ข้อ</t>
     </r>
@@ -3526,6 +3673,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>)</t>
@@ -3558,7 +3706,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณกำลังรอรถบัส</t>
     </r>
@@ -3567,6 +3715,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -3576,7 +3725,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>อยากตรวจสอบว่ารถบัสคันนี้ไปยังจุดหมาย</t>
     </r>
@@ -3585,6 +3734,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> (</t>
@@ -3594,7 +3744,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>เช่น</t>
     </r>
@@ -3603,6 +3753,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -3612,7 +3763,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>โรงพยาบาล</t>
     </r>
@@ -3621,6 +3772,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">) </t>
@@ -3630,7 +3782,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>หรือไม่</t>
     </r>
@@ -3639,6 +3791,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -3648,7 +3801,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณจะถามคนขับรถบัสหรือคนที่รอรถบัสอยู่รอบข้าง</t>
     </r>
@@ -3657,6 +3810,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -3666,7 +3820,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ว่าอย่างไร</t>
     </r>
@@ -3675,6 +3829,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>?</t>
@@ -3704,7 +3859,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณเจอสถานการณ์อันตรายและต้องการความช่วยเหลือ</t>
     </r>
@@ -3713,6 +3868,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -3722,7 +3878,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณจะพูดว่าอย่างไร</t>
     </r>
@@ -3731,6 +3887,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>?</t>
@@ -3763,7 +3920,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณไม่เข้าใจหรือจำวิธีการกินยาที่ได้รับจากโรงพยาบาลไม่ได้</t>
     </r>
@@ -3772,6 +3929,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -3781,7 +3939,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณจะถามว่าอย่างไร</t>
     </r>
@@ -3790,6 +3948,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>?(</t>
@@ -3799,7 +3958,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คำตอบที่ถูกต้อง</t>
     </r>
@@ -3808,6 +3967,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>2</t>
@@ -3817,7 +3977,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ข้อ</t>
     </r>
@@ -3826,6 +3986,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>)</t>
@@ -3861,7 +4022,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณมีอาการแพ้ยา</t>
     </r>
@@ -3870,6 +4031,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> (</t>
@@ -3879,7 +4041,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>เช่น</t>
     </r>
@@ -3888,6 +4050,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -3897,7 +4060,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>เพนิซิลลิน</t>
     </r>
@@ -3906,6 +4069,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">) </t>
@@ -3915,7 +4079,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณจะพูดที่โรงพยาบาลว่าอย่างไร</t>
     </r>
@@ -3924,6 +4088,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>?</t>
@@ -3953,7 +4118,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณมีอาการแพ้อาหาร</t>
     </r>
@@ -3962,6 +4127,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> (</t>
@@ -3971,7 +4137,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>เช่น</t>
     </r>
@@ -3980,6 +4146,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -3989,7 +4156,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>เนื้อวัว</t>
     </r>
@@ -3998,6 +4165,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">) </t>
@@ -4007,7 +4175,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณจะถามที่ร้านอาหารว่าอาหารที่จะสั่งมีเนื้อวัวหรือไม่</t>
     </r>
@@ -4016,6 +4184,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>?(</t>
@@ -4025,7 +4194,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คำตอบที่ถูกต้อง</t>
     </r>
@@ -4034,6 +4203,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>2</t>
@@ -4043,7 +4213,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ข้อ</t>
     </r>
@@ -4052,6 +4222,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>)</t>
@@ -4087,7 +4258,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>ที่สำนักงานเขต</t>
     </r>
@@ -4096,6 +4267,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -4105,7 +4277,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>เจ้าหน้าที่ขอให้แสดง</t>
     </r>
@@ -4114,6 +4286,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>ほんにんかくにんしょるい(</t>
@@ -4123,7 +4296,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>เอกสารยืนยันตัวตน</t>
     </r>
@@ -4132,6 +4305,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">) </t>
@@ -4141,7 +4315,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>คุณจะทำอย่างไร</t>
     </r>
@@ -4150,6 +4324,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>?</t>
@@ -4169,23 +4344,68 @@
   </si>
   <si>
     <t>ざいりゅうカード</t>
+  </si>
+  <si>
+    <t>特別編</t>
+    <rPh sb="0" eb="3">
+      <t>トクベツヘン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>！”＃＄％”</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>てすと1</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>テスト1</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>正答</t>
+    <rPh sb="0" eb="2">
+      <t>セイトウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>誤答1</t>
+    <rPh sb="0" eb="2">
+      <t>ゴトウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>誤答2</t>
+    <rPh sb="0" eb="2">
+      <t>ゴトウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>誤答3</t>
+    <rPh sb="0" eb="2">
+      <t>ゴトウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>テストです</t>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;฿&quot;* #,##0.00_-;\-&quot;฿&quot;* #,##0.00_-;_-&quot;฿&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;฿&quot;* #,##0_-;\-&quot;฿&quot;* #,##0_-;_-&quot;฿&quot;* &quot;-&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -4193,6 +4413,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -4200,196 +4421,57 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="222"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Browallia New"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Yu Gothic UI"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="222"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4398,198 +4480,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799981688894314"/>
+        <fgColor theme="3" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -4921,253 +4841,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5409,62 +5087,33 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Link" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5751,37 +5400,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E28" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A37" sqref="A37"/>
+      <selection pane="bottomRight" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.88888888888889" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.77777777777778" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.2222222222222" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1111111111111" style="1" customWidth="1"/>
-    <col min="5" max="6" width="50.7777777777778" style="2" customWidth="1"/>
-    <col min="7" max="12" width="50.7777777777778" style="3" customWidth="1"/>
-    <col min="13" max="15" width="50.7777777777778" style="4" customWidth="1"/>
-    <col min="16" max="17" width="50.7777777777778" style="5" customWidth="1"/>
-    <col min="18" max="20" width="50.7777777777778" style="6" customWidth="1"/>
-    <col min="21" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="1" width="3.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="50.77734375" style="2" customWidth="1"/>
+    <col min="7" max="12" width="50.77734375" style="3" customWidth="1"/>
+    <col min="13" max="15" width="50.77734375" style="4" customWidth="1"/>
+    <col min="16" max="17" width="50.77734375" style="5" customWidth="1"/>
+    <col min="18" max="20" width="50.77734375" style="6" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.55" spans="1:20">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5843,7 +5491,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" ht="70.05" customHeight="1" spans="1:22">
+    <row r="2" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -5894,7 +5542,7 @@
       <c r="T2" s="72"/>
       <c r="V2"/>
     </row>
-    <row r="3" ht="70.05" customHeight="1" spans="1:22">
+    <row r="3" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21">
         <v>1</v>
       </c>
@@ -5941,7 +5589,7 @@
       <c r="T3" s="76"/>
       <c r="V3"/>
     </row>
-    <row r="4" ht="70.05" customHeight="1" spans="1:22">
+    <row r="4" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21">
         <v>1</v>
       </c>
@@ -5988,7 +5636,7 @@
       <c r="T4" s="76"/>
       <c r="V4"/>
     </row>
-    <row r="5" ht="70.05" customHeight="1" spans="1:22">
+    <row r="5" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
         <v>1</v>
       </c>
@@ -6039,7 +5687,7 @@
       <c r="T5" s="76"/>
       <c r="V5"/>
     </row>
-    <row r="6" ht="70.05" customHeight="1" spans="1:22">
+    <row r="6" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
         <v>1</v>
       </c>
@@ -6086,7 +5734,7 @@
       <c r="T6" s="76"/>
       <c r="V6"/>
     </row>
-    <row r="7" ht="70.05" customHeight="1" spans="1:22">
+    <row r="7" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
         <v>1</v>
       </c>
@@ -6133,7 +5781,7 @@
       <c r="T7" s="76"/>
       <c r="V7"/>
     </row>
-    <row r="8" ht="70.05" customHeight="1" spans="1:22">
+    <row r="8" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
         <v>1</v>
       </c>
@@ -6180,7 +5828,7 @@
       <c r="T8" s="76"/>
       <c r="V8"/>
     </row>
-    <row r="9" ht="70.05" customHeight="1" spans="1:22">
+    <row r="9" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -6235,7 +5883,7 @@
       <c r="T9" s="76"/>
       <c r="V9"/>
     </row>
-    <row r="10" ht="70.05" customHeight="1" spans="1:22">
+    <row r="10" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21">
         <v>1</v>
       </c>
@@ -6290,7 +5938,7 @@
       </c>
       <c r="V10"/>
     </row>
-    <row r="11" ht="70.05" customHeight="1" spans="1:22">
+    <row r="11" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21">
         <v>1</v>
       </c>
@@ -6341,7 +5989,7 @@
       <c r="T11" s="76"/>
       <c r="V11"/>
     </row>
-    <row r="12" ht="70.05" customHeight="1" spans="1:22">
+    <row r="12" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
         <v>1</v>
       </c>
@@ -6396,7 +6044,7 @@
       </c>
       <c r="V12"/>
     </row>
-    <row r="13" ht="70.05" customHeight="1" spans="1:22">
+    <row r="13" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21">
         <v>1</v>
       </c>
@@ -6447,7 +6095,7 @@
       <c r="T13" s="76"/>
       <c r="V13"/>
     </row>
-    <row r="14" ht="70.05" customHeight="1" spans="1:22">
+    <row r="14" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21">
         <v>1</v>
       </c>
@@ -6506,7 +6154,7 @@
       </c>
       <c r="V14"/>
     </row>
-    <row r="15" ht="70.05" customHeight="1" spans="1:22">
+    <row r="15" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21">
         <v>1</v>
       </c>
@@ -6561,7 +6209,7 @@
       </c>
       <c r="V15"/>
     </row>
-    <row r="16" ht="70.05" customHeight="1" spans="1:22">
+    <row r="16" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21">
         <v>1</v>
       </c>
@@ -6616,7 +6264,7 @@
       </c>
       <c r="V16"/>
     </row>
-    <row r="17" ht="70.05" customHeight="1" spans="1:22">
+    <row r="17" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21">
         <v>1</v>
       </c>
@@ -6661,7 +6309,7 @@
       <c r="T17" s="76"/>
       <c r="V17"/>
     </row>
-    <row r="18" ht="70.05" customHeight="1" spans="1:22">
+    <row r="18" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21">
         <v>1</v>
       </c>
@@ -6706,7 +6354,7 @@
       <c r="T18" s="76"/>
       <c r="V18"/>
     </row>
-    <row r="19" ht="70.05" customHeight="1" spans="1:22">
+    <row r="19" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21">
         <v>1</v>
       </c>
@@ -6757,7 +6405,7 @@
       <c r="T19" s="76"/>
       <c r="V19"/>
     </row>
-    <row r="20" ht="70.05" customHeight="1" spans="1:22">
+    <row r="20" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21">
         <v>1</v>
       </c>
@@ -6808,7 +6456,7 @@
       <c r="T20" s="76"/>
       <c r="V20"/>
     </row>
-    <row r="21" ht="70.05" customHeight="1" spans="1:22">
+    <row r="21" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21">
         <v>1</v>
       </c>
@@ -6855,7 +6503,7 @@
       <c r="T21" s="76"/>
       <c r="V21"/>
     </row>
-    <row r="22" ht="70.05" customHeight="1" spans="1:22">
+    <row r="22" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21">
         <v>1</v>
       </c>
@@ -6902,7 +6550,7 @@
       <c r="T22" s="76"/>
       <c r="V22"/>
     </row>
-    <row r="23" ht="70.05" customHeight="1" spans="1:22">
+    <row r="23" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21">
         <v>1</v>
       </c>
@@ -6949,7 +6597,7 @@
       <c r="T23" s="76"/>
       <c r="V23"/>
     </row>
-    <row r="24" ht="70.05" customHeight="1" spans="1:22">
+    <row r="24" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21">
         <v>1</v>
       </c>
@@ -6996,7 +6644,7 @@
       <c r="T24" s="76"/>
       <c r="V24"/>
     </row>
-    <row r="25" ht="70.05" customHeight="1" spans="1:22">
+    <row r="25" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21">
         <v>2</v>
       </c>
@@ -7051,7 +6699,7 @@
       </c>
       <c r="V25"/>
     </row>
-    <row r="26" ht="70.05" customHeight="1" spans="1:22">
+    <row r="26" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21">
         <v>2</v>
       </c>
@@ -7106,7 +6754,7 @@
       </c>
       <c r="V26"/>
     </row>
-    <row r="27" ht="70.05" customHeight="1" spans="1:22">
+    <row r="27" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21">
         <v>2</v>
       </c>
@@ -7157,7 +6805,7 @@
       <c r="T27" s="76"/>
       <c r="V27"/>
     </row>
-    <row r="28" ht="70.05" customHeight="1" spans="1:22">
+    <row r="28" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21">
         <v>2</v>
       </c>
@@ -7208,7 +6856,7 @@
       <c r="T28" s="76"/>
       <c r="V28"/>
     </row>
-    <row r="29" ht="70.05" customHeight="1" spans="1:22">
+    <row r="29" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21">
         <v>2</v>
       </c>
@@ -7259,7 +6907,7 @@
       <c r="T29" s="76"/>
       <c r="V29"/>
     </row>
-    <row r="30" ht="70.05" customHeight="1" spans="1:22">
+    <row r="30" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21">
         <v>2</v>
       </c>
@@ -7310,7 +6958,7 @@
       <c r="T30" s="76"/>
       <c r="V30"/>
     </row>
-    <row r="31" ht="70.05" customHeight="1" spans="1:22">
+    <row r="31" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21">
         <v>2</v>
       </c>
@@ -7361,7 +7009,7 @@
       <c r="T31" s="76"/>
       <c r="V31"/>
     </row>
-    <row r="32" ht="70.05" customHeight="1" spans="1:22">
+    <row r="32" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="21">
         <v>2</v>
       </c>
@@ -7408,7 +7056,7 @@
       <c r="T32" s="76"/>
       <c r="V32"/>
     </row>
-    <row r="33" ht="70.05" customHeight="1" spans="1:22">
+    <row r="33" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21">
         <v>2</v>
       </c>
@@ -7455,7 +7103,7 @@
       <c r="T33" s="76"/>
       <c r="V33"/>
     </row>
-    <row r="34" ht="70.05" customHeight="1" spans="1:22">
+    <row r="34" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21">
         <v>2</v>
       </c>
@@ -7506,7 +7154,7 @@
       <c r="T34" s="76"/>
       <c r="V34"/>
     </row>
-    <row r="35" ht="70.05" customHeight="1" spans="1:22">
+    <row r="35" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21">
         <v>2</v>
       </c>
@@ -7553,7 +7201,7 @@
       <c r="T35" s="76"/>
       <c r="V35"/>
     </row>
-    <row r="36" ht="70.05" customHeight="1" spans="1:22">
+    <row r="36" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="21">
         <v>2</v>
       </c>
@@ -7604,7 +7252,7 @@
       <c r="T36" s="76"/>
       <c r="V36"/>
     </row>
-    <row r="37" ht="70.05" customHeight="1" spans="1:22">
+    <row r="37" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="29">
         <v>2</v>
       </c>
@@ -7649,9 +7297,53 @@
       <c r="T37" s="80"/>
       <c r="V37"/>
     </row>
-    <row r="38" ht="70.05" customHeight="1"/>
+    <row r="38" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="29">
+        <v>3</v>
+      </c>
+      <c r="B38" s="30">
+        <v>1</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="D38" s="81" t="s">
+        <v>332</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="F38" s="82" t="s">
+        <v>334</v>
+      </c>
+      <c r="G38" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="H38" s="36"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="83" t="s">
+        <v>336</v>
+      </c>
+      <c r="N38" s="84" t="s">
+        <v>337</v>
+      </c>
+      <c r="O38" s="85" t="s">
+        <v>338</v>
+      </c>
+      <c r="P38" s="64"/>
+      <c r="Q38" s="77"/>
+      <c r="R38" s="78" t="s">
+        <v>339</v>
+      </c>
+      <c r="S38" s="79"/>
+      <c r="T38" s="80"/>
+      <c r="V38"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/quiz_questions.xlsx
+++ b/quiz_questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshi\ATP-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14F412C-9B79-49EB-8627-E77690500664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5E76C1-176F-4B59-AEBB-943651BD2310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5136" yWindow="1020" windowWidth="15072" windowHeight="10812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="331">
   <si>
     <t>カテゴリNo.</t>
   </si>
@@ -4344,64 +4344,13 @@
   </si>
   <si>
     <t>ざいりゅうカード</t>
-  </si>
-  <si>
-    <t>特別編</t>
-    <rPh sb="0" eb="3">
-      <t>トクベツヘン</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>！”＃＄％”</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>てすと1</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>テスト1</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>正答</t>
-    <rPh sb="0" eb="2">
-      <t>セイトウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>誤答1</t>
-    <rPh sb="0" eb="2">
-      <t>ゴトウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>誤答2</t>
-    <rPh sb="0" eb="2">
-      <t>ゴトウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>誤答3</t>
-    <rPh sb="0" eb="2">
-      <t>ゴトウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>テストです</t>
-    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4450,25 +4399,11 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic UI"/>
-      <family val="2"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="7">
@@ -4845,7 +4780,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5085,21 +5020,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5406,13 +5326,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V38"/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A38" sqref="A38"/>
+      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.2"/>
@@ -7297,53 +7217,8 @@
       <c r="T37" s="80"/>
       <c r="V37"/>
     </row>
-    <row r="38" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="29">
-        <v>3</v>
-      </c>
-      <c r="B38" s="30">
-        <v>1</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="D38" s="81" t="s">
-        <v>332</v>
-      </c>
-      <c r="E38" s="33" t="s">
-        <v>333</v>
-      </c>
-      <c r="F38" s="82" t="s">
-        <v>334</v>
-      </c>
-      <c r="G38" s="35" t="s">
-        <v>335</v>
-      </c>
-      <c r="H38" s="36"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="60"/>
-      <c r="M38" s="83" t="s">
-        <v>336</v>
-      </c>
-      <c r="N38" s="84" t="s">
-        <v>337</v>
-      </c>
-      <c r="O38" s="85" t="s">
-        <v>338</v>
-      </c>
-      <c r="P38" s="64"/>
-      <c r="Q38" s="77"/>
-      <c r="R38" s="78" t="s">
-        <v>339</v>
-      </c>
-      <c r="S38" s="79"/>
-      <c r="T38" s="80"/>
-      <c r="V38"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/quiz_questions.xlsx
+++ b/quiz_questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshi\ATP-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5E76C1-176F-4B59-AEBB-943651BD2310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF08A889-51A3-4B04-B6D8-D7E34E50D600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="708" windowWidth="16476" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="337">
   <si>
     <t>カテゴリNo.</t>
   </si>
@@ -4344,13 +4344,37 @@
   </si>
   <si>
     <t>ざいりゅうカード</t>
+  </si>
+  <si>
+    <t>NEW</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ahtbsn</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>absd</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>sdb</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>sdfb</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>sdbf</t>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4405,6 +4429,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -4780,7 +4811,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5020,6 +5051,21 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5326,13 +5372,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V37"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="O34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomRight" activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.2"/>
@@ -7217,6 +7263,51 @@
       <c r="T37" s="80"/>
       <c r="V37"/>
     </row>
+    <row r="38" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="29">
+        <v>3</v>
+      </c>
+      <c r="B38" s="30">
+        <v>1</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="F38" s="81" t="s">
+        <v>334</v>
+      </c>
+      <c r="G38" s="82" t="s">
+        <v>334</v>
+      </c>
+      <c r="H38" s="36"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="83" t="s">
+        <v>334</v>
+      </c>
+      <c r="N38" s="84" t="s">
+        <v>335</v>
+      </c>
+      <c r="O38" s="85" t="s">
+        <v>336</v>
+      </c>
+      <c r="P38" s="64"/>
+      <c r="Q38" s="77"/>
+      <c r="R38" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="S38" s="79"/>
+      <c r="T38" s="80"/>
+      <c r="V38"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/quiz_questions.xlsx
+++ b/quiz_questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshi\ATP-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF08A889-51A3-4B04-B6D8-D7E34E50D600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3C38D4-29AA-4CF3-9CA2-5D5409E8AFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="708" windowWidth="16476" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="331">
   <si>
     <t>カテゴリNo.</t>
   </si>
@@ -4344,37 +4344,13 @@
   </si>
   <si>
     <t>ざいりゅうカード</t>
-  </si>
-  <si>
-    <t>NEW</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>ahtbsn</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>absd</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>sdb</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>sdfb</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>sdbf</t>
-    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4429,13 +4405,6 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic UI"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -4811,7 +4780,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5051,21 +5020,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5372,13 +5326,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V38"/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="O34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O38" sqref="O38"/>
+      <selection pane="bottomRight" activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.2"/>
@@ -7263,51 +7217,6 @@
       <c r="T37" s="80"/>
       <c r="V37"/>
     </row>
-    <row r="38" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="29">
-        <v>3</v>
-      </c>
-      <c r="B38" s="30">
-        <v>1</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="D38" s="32" t="s">
-        <v>332</v>
-      </c>
-      <c r="E38" s="33" t="s">
-        <v>333</v>
-      </c>
-      <c r="F38" s="81" t="s">
-        <v>334</v>
-      </c>
-      <c r="G38" s="82" t="s">
-        <v>334</v>
-      </c>
-      <c r="H38" s="36"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="60"/>
-      <c r="M38" s="83" t="s">
-        <v>334</v>
-      </c>
-      <c r="N38" s="84" t="s">
-        <v>335</v>
-      </c>
-      <c r="O38" s="85" t="s">
-        <v>336</v>
-      </c>
-      <c r="P38" s="64"/>
-      <c r="Q38" s="77"/>
-      <c r="R38" s="78" t="s">
-        <v>330</v>
-      </c>
-      <c r="S38" s="79"/>
-      <c r="T38" s="80"/>
-      <c r="V38"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/quiz_questions.xlsx
+++ b/quiz_questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshi\ATP-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3C38D4-29AA-4CF3-9CA2-5D5409E8AFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40272A8D-50E6-445F-AE09-CC7BD2A774C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="708" windowWidth="16476" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5832" yWindow="708" windowWidth="16476" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="335">
   <si>
     <t>カテゴリNo.</t>
   </si>
@@ -4344,13 +4344,29 @@
   </si>
   <si>
     <t>ざいりゅうカード</t>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>aag</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>aasd</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>asd</t>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4405,6 +4421,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -4780,7 +4803,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5020,6 +5043,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5326,13 +5355,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V37"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="O34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O35" sqref="O35"/>
+      <selection pane="bottomRight" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.2"/>
@@ -7217,6 +7246,51 @@
       <c r="T37" s="80"/>
       <c r="V37"/>
     </row>
+    <row r="38" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="29">
+        <v>3</v>
+      </c>
+      <c r="B38" s="30">
+        <v>13</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="F38" s="81" t="s">
+        <v>333</v>
+      </c>
+      <c r="G38" s="82" t="s">
+        <v>334</v>
+      </c>
+      <c r="H38" s="36"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="61" t="s">
+        <v>327</v>
+      </c>
+      <c r="N38" s="62" t="s">
+        <v>328</v>
+      </c>
+      <c r="O38" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="P38" s="64"/>
+      <c r="Q38" s="77"/>
+      <c r="R38" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="S38" s="79"/>
+      <c r="T38" s="80"/>
+      <c r="V38"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/quiz_questions.xlsx
+++ b/quiz_questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshi\ATP-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40272A8D-50E6-445F-AE09-CC7BD2A774C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB49C877-BED4-4148-8309-98393BAC0E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5832" yWindow="708" windowWidth="16476" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="331">
   <si>
     <t>カテゴリNo.</t>
   </si>
@@ -4344,29 +4344,13 @@
   </si>
   <si>
     <t>ざいりゅうカード</t>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>aag</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>aasd</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>asd</t>
-    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4421,13 +4405,6 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic UI"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -4803,7 +4780,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5043,12 +5020,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5355,13 +5326,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V38"/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G39" sqref="G39"/>
+      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.2"/>
@@ -7246,51 +7217,6 @@
       <c r="T37" s="80"/>
       <c r="V37"/>
     </row>
-    <row r="38" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="29">
-        <v>3</v>
-      </c>
-      <c r="B38" s="30">
-        <v>13</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="D38" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="E38" s="33" t="s">
-        <v>332</v>
-      </c>
-      <c r="F38" s="81" t="s">
-        <v>333</v>
-      </c>
-      <c r="G38" s="82" t="s">
-        <v>334</v>
-      </c>
-      <c r="H38" s="36"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="60"/>
-      <c r="M38" s="61" t="s">
-        <v>327</v>
-      </c>
-      <c r="N38" s="62" t="s">
-        <v>328</v>
-      </c>
-      <c r="O38" s="63" t="s">
-        <v>329</v>
-      </c>
-      <c r="P38" s="64"/>
-      <c r="Q38" s="77"/>
-      <c r="R38" s="78" t="s">
-        <v>330</v>
-      </c>
-      <c r="S38" s="79"/>
-      <c r="T38" s="80"/>
-      <c r="V38"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/quiz_questions.xlsx
+++ b/quiz_questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshi\ATP-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB49C877-BED4-4148-8309-98393BAC0E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF118D7-8570-4138-B6B1-FA957B9B34F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5832" yWindow="708" windowWidth="16476" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="331">
   <si>
     <t>カテゴリNo.</t>
   </si>
@@ -5326,13 +5326,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V37"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.2"/>
@@ -7217,6 +7217,51 @@
       <c r="T37" s="80"/>
       <c r="V37"/>
     </row>
+    <row r="38" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="29">
+        <v>3</v>
+      </c>
+      <c r="B38" s="30">
+        <v>13</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="G38" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="H38" s="36"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="61" t="s">
+        <v>327</v>
+      </c>
+      <c r="N38" s="62" t="s">
+        <v>328</v>
+      </c>
+      <c r="O38" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="P38" s="64"/>
+      <c r="Q38" s="77"/>
+      <c r="R38" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="S38" s="79"/>
+      <c r="T38" s="80"/>
+      <c r="V38"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/quiz_questions.xlsx
+++ b/quiz_questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshi\ATP-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF118D7-8570-4138-B6B1-FA957B9B34F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED19F7E0-C3D3-4AFB-BF99-E12A748F2467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5832" yWindow="708" windowWidth="16476" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="332">
   <si>
     <t>カテゴリNo.</t>
   </si>
@@ -4344,6 +4344,10 @@
   </si>
   <si>
     <t>ざいりゅうカード</t>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
@@ -5332,7 +5336,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.2"/>
@@ -7225,10 +7229,10 @@
         <v>13</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>219</v>
+        <v>331</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>220</v>
+        <v>331</v>
       </c>
       <c r="E38" s="33" t="s">
         <v>324</v>

--- a/quiz_questions.xlsx
+++ b/quiz_questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshi\ATP-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED19F7E0-C3D3-4AFB-BF99-E12A748F2467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47072E13-0F17-420C-B027-3B55A5AE62EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5832" yWindow="708" windowWidth="16476" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="331">
   <si>
     <t>カテゴリNo.</t>
   </si>
@@ -4344,10 +4344,6 @@
   </si>
   <si>
     <t>ざいりゅうカード</t>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
@@ -5330,13 +5326,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V38"/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
+      <selection pane="bottomRight" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.2"/>
@@ -7221,51 +7217,6 @@
       <c r="T37" s="80"/>
       <c r="V37"/>
     </row>
-    <row r="38" spans="1:22" ht="70.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="29">
-        <v>3</v>
-      </c>
-      <c r="B38" s="30">
-        <v>13</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="D38" s="32" t="s">
-        <v>331</v>
-      </c>
-      <c r="E38" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F38" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="G38" s="35" t="s">
-        <v>326</v>
-      </c>
-      <c r="H38" s="36"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="60"/>
-      <c r="M38" s="61" t="s">
-        <v>327</v>
-      </c>
-      <c r="N38" s="62" t="s">
-        <v>328</v>
-      </c>
-      <c r="O38" s="63" t="s">
-        <v>329</v>
-      </c>
-      <c r="P38" s="64"/>
-      <c r="Q38" s="77"/>
-      <c r="R38" s="78" t="s">
-        <v>330</v>
-      </c>
-      <c r="S38" s="79"/>
-      <c r="T38" s="80"/>
-      <c r="V38"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
